--- a/Excel/Confirmed_03-22-20.xlsx
+++ b/Excel/Confirmed_03-22-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\Python Scripts\Outbreak_Mapping\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A53CA713-75EE-4B15-91A8-399F054B556B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A7C29397-EC2E-4B21-ABC5-89FF84CA7F89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -3804,7 +3804,7 @@
   <dimension ref="A1:BM494"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BN499" sqref="BN499"/>
+      <selection activeCell="BL499" sqref="BL499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel/Confirmed_03-22-20.xlsx
+++ b/Excel/Confirmed_03-22-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\Python Scripts\Outbreak_Mapping\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A7C29397-EC2E-4B21-ABC5-89FF84CA7F89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8B124D3C-A293-48C9-97DF-E4BEFB420753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="566">
   <si>
     <t>Province/State</t>
   </si>
@@ -1695,6 +1695,30 @@
   <si>
     <t>US (incr)</t>
   </si>
+  <si>
+    <t>United States Virgin Islands</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>The Bahamas</t>
+  </si>
+  <si>
+    <t>The Gambia</t>
+  </si>
+  <si>
+    <t>3/23/2020</t>
+  </si>
+  <si>
+    <t>* Data Issue, get from totals csv for national analyses</t>
+  </si>
 </sst>
 </file>
 
@@ -2461,7 +2485,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed_03-22-20'!$BB$491:$BM$491</c:f>
+              <c:f>'Confirmed_03-22-20'!$BB$507:$BM$507</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3389,13 +3413,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>495</xdr:row>
+      <xdr:row>511</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>511</xdr:row>
+      <xdr:row>527</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3425,15 +3449,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:BM488" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:BM488">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:BN502" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:BN502">
     <filterColumn colId="1">
       <filters>
         <filter val="Italy"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="65">
+  <tableColumns count="66">
     <tableColumn id="1" name="Province/State"/>
     <tableColumn id="2" name="Country/Region"/>
     <tableColumn id="3" name="Lat"/>
@@ -3499,6 +3523,7 @@
     <tableColumn id="63" name="3/20/2020"/>
     <tableColumn id="64" name="3/21/2020"/>
     <tableColumn id="65" name="3/22/2020"/>
+    <tableColumn id="66" name="3/23/2020"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3801,10 +3826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM494"/>
+  <dimension ref="A1:BN510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BL499" sqref="BL499"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BN509" sqref="BN509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3817,9 +3842,10 @@
     <col min="24" max="43" width="11.6640625" customWidth="1"/>
     <col min="44" max="52" width="10.6640625" customWidth="1"/>
     <col min="53" max="65" width="11.6640625" customWidth="1"/>
+    <col min="66" max="66" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4015,8 +4041,11 @@
       <c r="BM1" s="1" t="s">
         <v>553</v>
       </c>
+      <c r="BN1" s="1" t="s">
+        <v>564</v>
+      </c>
     </row>
-    <row r="2" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -4209,8 +4238,11 @@
       <c r="BM2">
         <v>599</v>
       </c>
+      <c r="BN2">
+        <v>599</v>
+      </c>
     </row>
-    <row r="3" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -4403,8 +4435,11 @@
       <c r="BM3">
         <v>1086</v>
       </c>
+      <c r="BN3">
+        <v>1086</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -4597,8 +4632,11 @@
       <c r="BM4">
         <v>455</v>
       </c>
+      <c r="BN4">
+        <v>455</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -4791,8 +4829,11 @@
       <c r="BM5">
         <v>2</v>
       </c>
+      <c r="BN5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -4985,8 +5026,11 @@
       <c r="BM6">
         <v>1306</v>
       </c>
+      <c r="BN6">
+        <v>1306</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5182,8 +5226,11 @@
       <c r="BM7">
         <v>424</v>
       </c>
+      <c r="BN7">
+        <v>424</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -5379,8 +5426,11 @@
       <c r="BM8">
         <v>533</v>
       </c>
+      <c r="BN8">
+        <v>533</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -5576,8 +5626,11 @@
       <c r="BM9">
         <v>296</v>
       </c>
+      <c r="BN9">
+        <v>296</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -5773,8 +5826,11 @@
       <c r="BM10">
         <v>221</v>
       </c>
+      <c r="BN10">
+        <v>221</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -5967,8 +6023,11 @@
       <c r="BM11">
         <v>84</v>
       </c>
+      <c r="BN11">
+        <v>84</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -6161,8 +6220,11 @@
       <c r="BM12">
         <v>82</v>
       </c>
+      <c r="BN12">
+        <v>82</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -6355,8 +6417,11 @@
       <c r="BM13">
         <v>24873</v>
       </c>
+      <c r="BN13">
+        <v>24873</v>
+      </c>
     </row>
-    <row r="14" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -6549,8 +6614,11 @@
       <c r="BM14">
         <v>626</v>
       </c>
+      <c r="BN14">
+        <v>626</v>
+      </c>
     </row>
-    <row r="15" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -6743,8 +6811,11 @@
       <c r="BM15">
         <v>153</v>
       </c>
+      <c r="BN15">
+        <v>153</v>
+      </c>
     </row>
-    <row r="16" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -6937,8 +7008,11 @@
       <c r="BM16">
         <v>380</v>
       </c>
+      <c r="BN16">
+        <v>380</v>
+      </c>
     </row>
-    <row r="17" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -7131,8 +7205,11 @@
       <c r="BM17">
         <v>396</v>
       </c>
+      <c r="BN17">
+        <v>396</v>
+      </c>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -7325,8 +7402,11 @@
       <c r="BM18" s="2">
         <v>59138</v>
       </c>
+      <c r="BN18">
+        <v>59138</v>
+      </c>
     </row>
-    <row r="19" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -7519,8 +7599,11 @@
       <c r="BM19">
         <v>1934</v>
       </c>
+      <c r="BN19">
+        <v>1934</v>
+      </c>
     </row>
-    <row r="20" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -7713,8 +7796,11 @@
       <c r="BM20">
         <v>28768</v>
       </c>
+      <c r="BN20">
+        <v>28768</v>
+      </c>
     </row>
-    <row r="21" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -7910,8 +7996,11 @@
       <c r="BM21">
         <v>100</v>
       </c>
+      <c r="BN21">
+        <v>100</v>
+      </c>
     </row>
-    <row r="22" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -8104,8 +8193,11 @@
       <c r="BM22">
         <v>3401</v>
       </c>
+      <c r="BN22">
+        <v>3401</v>
+      </c>
     </row>
-    <row r="23" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -8298,8 +8390,11 @@
       <c r="BM23">
         <v>327</v>
       </c>
+      <c r="BN23">
+        <v>327</v>
+      </c>
     </row>
-    <row r="24" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -8495,8 +8590,11 @@
       <c r="BM24">
         <v>0</v>
       </c>
+      <c r="BN24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -8689,8 +8787,11 @@
       <c r="BM25">
         <v>248</v>
       </c>
+      <c r="BN25">
+        <v>248</v>
+      </c>
     </row>
-    <row r="26" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -8883,8 +8984,11 @@
       <c r="BM26">
         <v>233</v>
       </c>
+      <c r="BN26">
+        <v>233</v>
+      </c>
     </row>
-    <row r="27" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>31</v>
       </c>
@@ -9077,8 +9181,11 @@
       <c r="BM27">
         <v>55</v>
       </c>
+      <c r="BN27">
+        <v>55</v>
+      </c>
     </row>
-    <row r="28" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -9271,8 +9378,11 @@
       <c r="BM28">
         <v>40</v>
       </c>
+      <c r="BN28">
+        <v>40</v>
+      </c>
     </row>
-    <row r="29" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>33</v>
       </c>
@@ -9465,8 +9575,11 @@
       <c r="BM29">
         <v>332</v>
       </c>
+      <c r="BN29">
+        <v>332</v>
+      </c>
     </row>
-    <row r="30" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>34</v>
       </c>
@@ -9659,8 +9772,11 @@
       <c r="BM30">
         <v>188</v>
       </c>
+      <c r="BN30">
+        <v>188</v>
+      </c>
     </row>
-    <row r="31" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>35</v>
       </c>
@@ -9853,8 +9969,11 @@
       <c r="BM31">
         <v>201</v>
       </c>
+      <c r="BN31">
+        <v>201</v>
+      </c>
     </row>
-    <row r="32" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>36</v>
       </c>
@@ -10047,8 +10166,11 @@
       <c r="BM32">
         <v>254</v>
       </c>
+      <c r="BN32">
+        <v>254</v>
+      </c>
     </row>
-    <row r="33" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>37</v>
       </c>
@@ -10241,8 +10363,11 @@
       <c r="BM33">
         <v>7245</v>
       </c>
+      <c r="BN33">
+        <v>7245</v>
+      </c>
     </row>
-    <row r="34" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>38</v>
       </c>
@@ -10435,8 +10560,11 @@
       <c r="BM34">
         <v>3244</v>
       </c>
+      <c r="BN34">
+        <v>3244</v>
+      </c>
     </row>
-    <row r="35" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>39</v>
       </c>
@@ -10629,8 +10757,11 @@
       <c r="BM35">
         <v>1071</v>
       </c>
+      <c r="BN35">
+        <v>1071</v>
+      </c>
     </row>
-    <row r="36" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>40</v>
       </c>
@@ -10823,8 +10954,11 @@
       <c r="BM36">
         <v>776</v>
       </c>
+      <c r="BN36">
+        <v>776</v>
+      </c>
     </row>
-    <row r="37" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>41</v>
       </c>
@@ -11017,8 +11151,11 @@
       <c r="BM37">
         <v>1593</v>
       </c>
+      <c r="BN37">
+        <v>1593</v>
+      </c>
     </row>
-    <row r="38" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>42</v>
       </c>
@@ -11211,8 +11348,11 @@
       <c r="BM38">
         <v>54</v>
       </c>
+      <c r="BN38">
+        <v>54</v>
+      </c>
     </row>
-    <row r="39" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>43</v>
       </c>
@@ -11405,8 +11545,11 @@
       <c r="BM39">
         <v>624</v>
       </c>
+      <c r="BN39">
+        <v>624</v>
+      </c>
     </row>
-    <row r="40" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>44</v>
       </c>
@@ -11599,8 +11742,11 @@
       <c r="BM40">
         <v>114</v>
       </c>
+      <c r="BN40">
+        <v>114</v>
+      </c>
     </row>
-    <row r="41" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>45</v>
       </c>
@@ -11793,8 +11939,11 @@
       <c r="BM41">
         <v>2383</v>
       </c>
+      <c r="BN41">
+        <v>2383</v>
+      </c>
     </row>
-    <row r="42" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>46</v>
       </c>
@@ -11987,8 +12136,11 @@
       <c r="BM42">
         <v>433</v>
       </c>
+      <c r="BN42">
+        <v>433</v>
+      </c>
     </row>
-    <row r="43" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>47</v>
       </c>
@@ -12181,8 +12333,11 @@
       <c r="BM43">
         <v>326</v>
       </c>
+      <c r="BN43">
+        <v>326</v>
+      </c>
     </row>
-    <row r="44" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>48</v>
       </c>
@@ -12375,8 +12530,11 @@
       <c r="BM44">
         <v>160</v>
       </c>
+      <c r="BN44">
+        <v>160</v>
+      </c>
     </row>
-    <row r="45" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>49</v>
       </c>
@@ -12569,8 +12727,11 @@
       <c r="BM45">
         <v>76</v>
       </c>
+      <c r="BN45">
+        <v>76</v>
+      </c>
     </row>
-    <row r="46" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>50</v>
       </c>
@@ -12763,8 +12924,11 @@
       <c r="BM46">
         <v>568</v>
       </c>
+      <c r="BN46">
+        <v>568</v>
+      </c>
     </row>
-    <row r="47" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>51</v>
       </c>
@@ -12957,8 +13121,11 @@
       <c r="BM47">
         <v>131</v>
       </c>
+      <c r="BN47">
+        <v>131</v>
+      </c>
     </row>
-    <row r="48" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>52</v>
       </c>
@@ -13151,8 +13318,11 @@
       <c r="BM48">
         <v>251</v>
       </c>
+      <c r="BN48">
+        <v>251</v>
+      </c>
     </row>
-    <row r="49" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>53</v>
       </c>
@@ -13345,8 +13515,11 @@
       <c r="BM49">
         <v>66</v>
       </c>
+      <c r="BN49">
+        <v>66</v>
+      </c>
     </row>
-    <row r="50" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>54</v>
       </c>
@@ -13539,8 +13712,11 @@
       <c r="BM50">
         <v>30</v>
       </c>
+      <c r="BN50">
+        <v>30</v>
+      </c>
     </row>
-    <row r="51" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -13736,8 +13912,11 @@
       <c r="BM51">
         <v>120</v>
       </c>
+      <c r="BN51">
+        <v>120</v>
+      </c>
     </row>
-    <row r="52" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>56</v>
       </c>
@@ -13930,8 +14109,11 @@
       <c r="BM52">
         <v>906</v>
       </c>
+      <c r="BN52">
+        <v>906</v>
+      </c>
     </row>
-    <row r="53" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>57</v>
       </c>
@@ -14124,8 +14306,11 @@
       <c r="BM53">
         <v>798</v>
       </c>
+      <c r="BN53">
+        <v>798</v>
+      </c>
     </row>
-    <row r="54" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>58</v>
       </c>
@@ -14318,8 +14503,11 @@
       <c r="BM54">
         <v>23</v>
       </c>
+      <c r="BN54">
+        <v>23</v>
+      </c>
     </row>
-    <row r="55" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>59</v>
       </c>
@@ -14512,8 +14700,11 @@
       <c r="BM55">
         <v>494</v>
       </c>
+      <c r="BN55">
+        <v>494</v>
+      </c>
     </row>
-    <row r="56" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>60</v>
       </c>
@@ -14706,8 +14897,11 @@
       <c r="BM56">
         <v>789</v>
       </c>
+      <c r="BN56">
+        <v>789</v>
+      </c>
     </row>
-    <row r="57" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>61</v>
       </c>
@@ -14900,8 +15094,11 @@
       <c r="BM57">
         <v>65</v>
       </c>
+      <c r="BN57">
+        <v>65</v>
+      </c>
     </row>
-    <row r="58" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>62</v>
       </c>
@@ -15094,8 +15291,11 @@
       <c r="BM58">
         <v>194</v>
       </c>
+      <c r="BN58">
+        <v>194</v>
+      </c>
     </row>
-    <row r="59" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>63</v>
       </c>
@@ -15288,8 +15488,11 @@
       <c r="BM59">
         <v>202</v>
       </c>
+      <c r="BN59">
+        <v>202</v>
+      </c>
     </row>
-    <row r="60" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>64</v>
       </c>
@@ -15482,8 +15685,11 @@
       <c r="BM60">
         <v>514</v>
       </c>
+      <c r="BN60">
+        <v>514</v>
+      </c>
     </row>
-    <row r="61" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>65</v>
       </c>
@@ -15676,8 +15882,11 @@
       <c r="BM61">
         <v>1600</v>
       </c>
+      <c r="BN61">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="62" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>66</v>
       </c>
@@ -15870,8 +16079,11 @@
       <c r="BM62">
         <v>113</v>
       </c>
+      <c r="BN62">
+        <v>113</v>
+      </c>
     </row>
-    <row r="63" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -16067,8 +16279,11 @@
       <c r="BM63">
         <v>22</v>
       </c>
+      <c r="BN63">
+        <v>22</v>
+      </c>
     </row>
-    <row r="64" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>68</v>
       </c>
@@ -16261,8 +16476,11 @@
       <c r="BM64">
         <v>139</v>
       </c>
+      <c r="BN64">
+        <v>139</v>
+      </c>
     </row>
-    <row r="65" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>69</v>
       </c>
@@ -16455,8 +16673,11 @@
       <c r="BM65">
         <v>115</v>
       </c>
+      <c r="BN65">
+        <v>115</v>
+      </c>
     </row>
-    <row r="66" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>70</v>
       </c>
@@ -16649,8 +16870,11 @@
       <c r="BM66">
         <v>511</v>
       </c>
+      <c r="BN66">
+        <v>511</v>
+      </c>
     </row>
-    <row r="67" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>71</v>
       </c>
@@ -16843,8 +17067,11 @@
       <c r="BM67">
         <v>67</v>
       </c>
+      <c r="BN67">
+        <v>67</v>
+      </c>
     </row>
-    <row r="68" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>72</v>
       </c>
@@ -17037,8 +17264,11 @@
       <c r="BM68">
         <v>225</v>
       </c>
+      <c r="BN68">
+        <v>225</v>
+      </c>
     </row>
-    <row r="69" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>73</v>
       </c>
@@ -17231,8 +17461,11 @@
       <c r="BM69">
         <v>632</v>
       </c>
+      <c r="BN69">
+        <v>632</v>
+      </c>
     </row>
-    <row r="70" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>74</v>
       </c>
@@ -17425,8 +17658,11 @@
       <c r="BM70">
         <v>112</v>
       </c>
+      <c r="BN70">
+        <v>112</v>
+      </c>
     </row>
-    <row r="71" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>75</v>
       </c>
@@ -17619,8 +17855,11 @@
       <c r="BM71">
         <v>73</v>
       </c>
+      <c r="BN71">
+        <v>73</v>
+      </c>
     </row>
-    <row r="72" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>76</v>
       </c>
@@ -17813,8 +18052,11 @@
       <c r="BM72">
         <v>131</v>
       </c>
+      <c r="BN72">
+        <v>131</v>
+      </c>
     </row>
-    <row r="73" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -18010,8 +18252,11 @@
       <c r="BM73">
         <v>3</v>
       </c>
+      <c r="BN73">
+        <v>3</v>
+      </c>
     </row>
-    <row r="74" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>78</v>
       </c>
@@ -18204,8 +18449,11 @@
       <c r="BM74">
         <v>37</v>
       </c>
+      <c r="BN74">
+        <v>37</v>
+      </c>
     </row>
-    <row r="75" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>79</v>
       </c>
@@ -18398,8 +18646,11 @@
       <c r="BM75">
         <v>634</v>
       </c>
+      <c r="BN75">
+        <v>634</v>
+      </c>
     </row>
-    <row r="76" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>80</v>
       </c>
@@ -18592,8 +18843,11 @@
       <c r="BM76">
         <v>75</v>
       </c>
+      <c r="BN76">
+        <v>75</v>
+      </c>
     </row>
-    <row r="77" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>81</v>
       </c>
@@ -18786,8 +19040,11 @@
       <c r="BM77">
         <v>126</v>
       </c>
+      <c r="BN77">
+        <v>126</v>
+      </c>
     </row>
-    <row r="78" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>82</v>
       </c>
@@ -18980,8 +19237,11 @@
       <c r="BM78">
         <v>414</v>
       </c>
+      <c r="BN78">
+        <v>414</v>
+      </c>
     </row>
-    <row r="79" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>83</v>
       </c>
@@ -19174,8 +19434,11 @@
       <c r="BM79">
         <v>274</v>
       </c>
+      <c r="BN79">
+        <v>274</v>
+      </c>
     </row>
-    <row r="80" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>84</v>
       </c>
@@ -19368,8 +19631,11 @@
       <c r="BM80">
         <v>2</v>
       </c>
+      <c r="BN80">
+        <v>2</v>
+      </c>
     </row>
-    <row r="81" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>85</v>
       </c>
@@ -19562,8 +19828,11 @@
       <c r="BM81">
         <v>40</v>
       </c>
+      <c r="BN81">
+        <v>40</v>
+      </c>
     </row>
-    <row r="82" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>86</v>
       </c>
@@ -19756,8 +20025,11 @@
       <c r="BM82">
         <v>231</v>
       </c>
+      <c r="BN82">
+        <v>231</v>
+      </c>
     </row>
-    <row r="83" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>87</v>
       </c>
@@ -19950,8 +20222,11 @@
       <c r="BM83">
         <v>134</v>
       </c>
+      <c r="BN83">
+        <v>134</v>
+      </c>
     </row>
-    <row r="84" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>88</v>
       </c>
@@ -20144,8 +20419,11 @@
       <c r="BM84">
         <v>363</v>
       </c>
+      <c r="BN84">
+        <v>363</v>
+      </c>
     </row>
-    <row r="85" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>89</v>
       </c>
@@ -20338,8 +20616,11 @@
       <c r="BM85">
         <v>222</v>
       </c>
+      <c r="BN85">
+        <v>222</v>
+      </c>
     </row>
-    <row r="86" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>90</v>
       </c>
@@ -20532,8 +20813,11 @@
       <c r="BM86">
         <v>185</v>
       </c>
+      <c r="BN86">
+        <v>185</v>
+      </c>
     </row>
-    <row r="87" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>91</v>
       </c>
@@ -20726,8 +21010,11 @@
       <c r="BM87">
         <v>16</v>
       </c>
+      <c r="BN87">
+        <v>16</v>
+      </c>
     </row>
-    <row r="88" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>92</v>
       </c>
@@ -20920,8 +21207,11 @@
       <c r="BM88">
         <v>90</v>
       </c>
+      <c r="BN88">
+        <v>90</v>
+      </c>
     </row>
-    <row r="89" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>93</v>
       </c>
@@ -21114,8 +21404,11 @@
       <c r="BM89">
         <v>37</v>
       </c>
+      <c r="BN89">
+        <v>37</v>
+      </c>
     </row>
-    <row r="90" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>94</v>
       </c>
@@ -21308,8 +21601,11 @@
       <c r="BM90">
         <v>187</v>
       </c>
+      <c r="BN90">
+        <v>187</v>
+      </c>
     </row>
-    <row r="91" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>95</v>
       </c>
@@ -21502,8 +21798,11 @@
       <c r="BM91">
         <v>13</v>
       </c>
+      <c r="BN91">
+        <v>13</v>
+      </c>
     </row>
-    <row r="92" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>96</v>
       </c>
@@ -21696,8 +21995,11 @@
       <c r="BM92">
         <v>27</v>
       </c>
+      <c r="BN92">
+        <v>27</v>
+      </c>
     </row>
-    <row r="93" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>97</v>
       </c>
@@ -21890,8 +22192,11 @@
       <c r="BM93">
         <v>22</v>
       </c>
+      <c r="BN93">
+        <v>22</v>
+      </c>
     </row>
-    <row r="94" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -22087,8 +22392,11 @@
       <c r="BM94">
         <v>425</v>
       </c>
+      <c r="BN94">
+        <v>425</v>
+      </c>
     </row>
-    <row r="95" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -22284,8 +22592,11 @@
       <c r="BM95">
         <v>259</v>
       </c>
+      <c r="BN95">
+        <v>259</v>
+      </c>
     </row>
-    <row r="96" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -22481,8 +22792,11 @@
       <c r="BM96">
         <v>219</v>
       </c>
+      <c r="BN96">
+        <v>219</v>
+      </c>
     </row>
-    <row r="97" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>101</v>
       </c>
@@ -22675,8 +22989,11 @@
       <c r="BM97">
         <v>89</v>
       </c>
+      <c r="BN97">
+        <v>89</v>
+      </c>
     </row>
-    <row r="98" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>102</v>
       </c>
@@ -22869,8 +23186,11 @@
       <c r="BM98">
         <v>95</v>
       </c>
+      <c r="BN98">
+        <v>95</v>
+      </c>
     </row>
-    <row r="99" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>103</v>
       </c>
@@ -23063,8 +23383,11 @@
       <c r="BM99">
         <v>88</v>
       </c>
+      <c r="BN99">
+        <v>88</v>
+      </c>
     </row>
-    <row r="100" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -23260,8 +23583,11 @@
       <c r="BM100">
         <v>1996</v>
       </c>
+      <c r="BN100">
+        <v>1996</v>
+      </c>
     </row>
-    <row r="101" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -23457,8 +23783,11 @@
       <c r="BM101">
         <v>15793</v>
       </c>
+      <c r="BN101">
+        <v>15793</v>
+      </c>
     </row>
-    <row r="102" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -23654,8 +23983,11 @@
       <c r="BM102">
         <v>1642</v>
       </c>
+      <c r="BN102">
+        <v>1642</v>
+      </c>
     </row>
-    <row r="103" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -23851,8 +24183,11 @@
       <c r="BM103">
         <v>646</v>
       </c>
+      <c r="BN103">
+        <v>646</v>
+      </c>
     </row>
-    <row r="104" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -24048,8 +24383,11 @@
       <c r="BM104">
         <v>49</v>
       </c>
+      <c r="BN104">
+        <v>49</v>
+      </c>
     </row>
-    <row r="105" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -24245,8 +24583,11 @@
       <c r="BM105">
         <v>30</v>
       </c>
+      <c r="BN105">
+        <v>30</v>
+      </c>
     </row>
-    <row r="106" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>42</v>
       </c>
@@ -24442,8 +24783,11 @@
       <c r="BM106">
         <v>600</v>
       </c>
+      <c r="BN106">
+        <v>600</v>
+      </c>
     </row>
-    <row r="107" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -24639,8 +24983,11 @@
       <c r="BM107">
         <v>476</v>
       </c>
+      <c r="BN107">
+        <v>476</v>
+      </c>
     </row>
-    <row r="108" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -24836,8 +25183,11 @@
       <c r="BM108">
         <v>830</v>
       </c>
+      <c r="BN108">
+        <v>830</v>
+      </c>
     </row>
-    <row r="109" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -25033,8 +25383,11 @@
       <c r="BM109">
         <v>1914</v>
       </c>
+      <c r="BN109">
+        <v>1914</v>
+      </c>
     </row>
-    <row r="110" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -25230,8 +25583,11 @@
       <c r="BM110">
         <v>161</v>
       </c>
+      <c r="BN110">
+        <v>161</v>
+      </c>
     </row>
-    <row r="111" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -25427,8 +25783,11 @@
       <c r="BM111">
         <v>627</v>
       </c>
+      <c r="BN111">
+        <v>627</v>
+      </c>
     </row>
-    <row r="112" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -25624,8 +25983,11 @@
       <c r="BM112">
         <v>1049</v>
       </c>
+      <c r="BN112">
+        <v>1049</v>
+      </c>
     </row>
-    <row r="113" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -25821,8 +26183,11 @@
       <c r="BM113">
         <v>509</v>
       </c>
+      <c r="BN113">
+        <v>509</v>
+      </c>
     </row>
-    <row r="114" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -26018,8 +26383,11 @@
       <c r="BM114">
         <v>90</v>
       </c>
+      <c r="BN114">
+        <v>90</v>
+      </c>
     </row>
-    <row r="115" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -26215,8 +26583,11 @@
       <c r="BM115">
         <v>244</v>
       </c>
+      <c r="BN115">
+        <v>244</v>
+      </c>
     </row>
-    <row r="116" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -26412,8 +26783,11 @@
       <c r="BM116">
         <v>302</v>
       </c>
+      <c r="BN116">
+        <v>302</v>
+      </c>
     </row>
-    <row r="117" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -26609,8 +26983,11 @@
       <c r="BM117">
         <v>196</v>
       </c>
+      <c r="BN117">
+        <v>196</v>
+      </c>
     </row>
-    <row r="118" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -26806,8 +27183,11 @@
       <c r="BM118">
         <v>505</v>
       </c>
+      <c r="BN118">
+        <v>505</v>
+      </c>
     </row>
-    <row r="119" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -27003,8 +27383,11 @@
       <c r="BM119">
         <v>221</v>
       </c>
+      <c r="BN119">
+        <v>221</v>
+      </c>
     </row>
-    <row r="120" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>124</v>
       </c>
@@ -27200,8 +27583,11 @@
       <c r="BM120">
         <v>152</v>
       </c>
+      <c r="BN120">
+        <v>152</v>
+      </c>
     </row>
-    <row r="121" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>125</v>
       </c>
@@ -27397,8 +27783,11 @@
       <c r="BM121">
         <v>201</v>
       </c>
+      <c r="BN121">
+        <v>201</v>
+      </c>
     </row>
-    <row r="122" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -27594,8 +27983,11 @@
       <c r="BM122">
         <v>99</v>
       </c>
+      <c r="BN122">
+        <v>99</v>
+      </c>
     </row>
-    <row r="123" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>127</v>
       </c>
@@ -27791,8 +28183,11 @@
       <c r="BM123">
         <v>102</v>
       </c>
+      <c r="BN123">
+        <v>102</v>
+      </c>
     </row>
-    <row r="124" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -27988,8 +28383,11 @@
       <c r="BM124">
         <v>190</v>
       </c>
+      <c r="BN124">
+        <v>190</v>
+      </c>
     </row>
-    <row r="125" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>129</v>
       </c>
@@ -28185,8 +28583,11 @@
       <c r="BM125">
         <v>65</v>
       </c>
+      <c r="BN125">
+        <v>65</v>
+      </c>
     </row>
-    <row r="126" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>130</v>
       </c>
@@ -28382,8 +28783,11 @@
       <c r="BM126">
         <v>169</v>
       </c>
+      <c r="BN126">
+        <v>169</v>
+      </c>
     </row>
-    <row r="127" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>131</v>
       </c>
@@ -28579,8 +28983,11 @@
       <c r="BM127">
         <v>51</v>
       </c>
+      <c r="BN127">
+        <v>51</v>
+      </c>
     </row>
-    <row r="128" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>132</v>
       </c>
@@ -28776,8 +29183,11 @@
       <c r="BM128">
         <v>355</v>
       </c>
+      <c r="BN128">
+        <v>355</v>
+      </c>
     </row>
-    <row r="129" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>133</v>
       </c>
@@ -28973,8 +29383,11 @@
       <c r="BM129">
         <v>83</v>
       </c>
+      <c r="BN129">
+        <v>83</v>
+      </c>
     </row>
-    <row r="130" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>134</v>
       </c>
@@ -29170,8 +29583,11 @@
       <c r="BM130">
         <v>381</v>
       </c>
+      <c r="BN130">
+        <v>381</v>
+      </c>
     </row>
-    <row r="131" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>135</v>
       </c>
@@ -29367,8 +29783,11 @@
       <c r="BM131">
         <v>223</v>
       </c>
+      <c r="BN131">
+        <v>223</v>
+      </c>
     </row>
-    <row r="132" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>136</v>
       </c>
@@ -29564,8 +29983,11 @@
       <c r="BM132">
         <v>48</v>
       </c>
+      <c r="BN132">
+        <v>48</v>
+      </c>
     </row>
-    <row r="133" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>137</v>
       </c>
@@ -29761,8 +30183,11 @@
       <c r="BM133">
         <v>67</v>
       </c>
+      <c r="BN133">
+        <v>67</v>
+      </c>
     </row>
-    <row r="134" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>138</v>
       </c>
@@ -29958,8 +30383,11 @@
       <c r="BM134">
         <v>181</v>
       </c>
+      <c r="BN134">
+        <v>181</v>
+      </c>
     </row>
-    <row r="135" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>139</v>
       </c>
@@ -30152,8 +30580,11 @@
       <c r="BM135">
         <v>75</v>
       </c>
+      <c r="BN135">
+        <v>75</v>
+      </c>
     </row>
-    <row r="136" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>140</v>
       </c>
@@ -30346,8 +30777,11 @@
       <c r="BM136">
         <v>1</v>
       </c>
+      <c r="BN136">
+        <v>1</v>
+      </c>
     </row>
-    <row r="137" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>141</v>
       </c>
@@ -30540,8 +30974,11 @@
       <c r="BM137">
         <v>10</v>
       </c>
+      <c r="BN137">
+        <v>10</v>
+      </c>
     </row>
-    <row r="138" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>142</v>
       </c>
@@ -30734,8 +31171,11 @@
       <c r="BM138">
         <v>245</v>
       </c>
+      <c r="BN138">
+        <v>245</v>
+      </c>
     </row>
-    <row r="139" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>143</v>
       </c>
@@ -30931,8 +31371,11 @@
       <c r="BM139">
         <v>64</v>
       </c>
+      <c r="BN139">
+        <v>64</v>
+      </c>
     </row>
-    <row r="140" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>144</v>
       </c>
@@ -31128,8 +31571,11 @@
       <c r="BM140">
         <v>837</v>
       </c>
+      <c r="BN140">
+        <v>837</v>
+      </c>
     </row>
-    <row r="141" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>145</v>
       </c>
@@ -31325,8 +31771,11 @@
       <c r="BM141">
         <v>100</v>
       </c>
+      <c r="BN141">
+        <v>100</v>
+      </c>
     </row>
-    <row r="142" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>146</v>
       </c>
@@ -31522,8 +31971,11 @@
       <c r="BM142">
         <v>52</v>
       </c>
+      <c r="BN142">
+        <v>52</v>
+      </c>
     </row>
-    <row r="143" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>147</v>
       </c>
@@ -31719,8 +32171,11 @@
       <c r="BM143">
         <v>21</v>
       </c>
+      <c r="BN143">
+        <v>21</v>
+      </c>
     </row>
-    <row r="144" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>148</v>
       </c>
@@ -31916,8 +32371,11 @@
       <c r="BM144">
         <v>165</v>
       </c>
+      <c r="BN144">
+        <v>165</v>
+      </c>
     </row>
-    <row r="145" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>149</v>
       </c>
@@ -32113,8 +32571,11 @@
       <c r="BM145">
         <v>47</v>
       </c>
+      <c r="BN145">
+        <v>47</v>
+      </c>
     </row>
-    <row r="146" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>150</v>
       </c>
@@ -32310,8 +32771,11 @@
       <c r="BM146">
         <v>42</v>
       </c>
+      <c r="BN146">
+        <v>42</v>
+      </c>
     </row>
-    <row r="147" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>151</v>
       </c>
@@ -32507,8 +32971,11 @@
       <c r="BM147">
         <v>89</v>
       </c>
+      <c r="BN147">
+        <v>89</v>
+      </c>
     </row>
-    <row r="148" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>152</v>
       </c>
@@ -32704,8 +33171,11 @@
       <c r="BM148">
         <v>1037</v>
       </c>
+      <c r="BN148">
+        <v>1037</v>
+      </c>
     </row>
-    <row r="149" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>153</v>
       </c>
@@ -32901,8 +33371,11 @@
       <c r="BM149">
         <v>207</v>
       </c>
+      <c r="BN149">
+        <v>207</v>
+      </c>
     </row>
-    <row r="150" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>154</v>
       </c>
@@ -33098,8 +33571,11 @@
       <c r="BM150">
         <v>31</v>
       </c>
+      <c r="BN150">
+        <v>31</v>
+      </c>
     </row>
-    <row r="151" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>155</v>
       </c>
@@ -33295,8 +33771,11 @@
       <c r="BM151">
         <v>57</v>
       </c>
+      <c r="BN151">
+        <v>57</v>
+      </c>
     </row>
-    <row r="152" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>156</v>
       </c>
@@ -33492,8 +33971,11 @@
       <c r="BM152">
         <v>28</v>
       </c>
+      <c r="BN152">
+        <v>28</v>
+      </c>
     </row>
-    <row r="153" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>157</v>
       </c>
@@ -33689,8 +34171,11 @@
       <c r="BM153">
         <v>21</v>
       </c>
+      <c r="BN153">
+        <v>21</v>
+      </c>
     </row>
-    <row r="154" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>158</v>
       </c>
@@ -33886,8 +34371,11 @@
       <c r="BM154">
         <v>12</v>
       </c>
+      <c r="BN154">
+        <v>12</v>
+      </c>
     </row>
-    <row r="155" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>159</v>
       </c>
@@ -34083,8 +34571,11 @@
       <c r="BM155">
         <v>24</v>
       </c>
+      <c r="BN155">
+        <v>24</v>
+      </c>
     </row>
-    <row r="156" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>160</v>
       </c>
@@ -34280,8 +34771,11 @@
       <c r="BM156">
         <v>67800</v>
       </c>
+      <c r="BN156">
+        <v>67800</v>
+      </c>
     </row>
-    <row r="157" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>162</v>
       </c>
@@ -34474,8 +34968,11 @@
       <c r="BM157">
         <v>21638</v>
       </c>
+      <c r="BN157">
+        <v>21638</v>
+      </c>
     </row>
-    <row r="158" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>163</v>
       </c>
@@ -34668,8 +35165,11 @@
       <c r="BM158">
         <v>8897</v>
       </c>
+      <c r="BN158">
+        <v>8897</v>
+      </c>
     </row>
-    <row r="159" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>164</v>
       </c>
@@ -34865,8 +35365,11 @@
       <c r="BM159">
         <v>16018</v>
       </c>
+      <c r="BN159">
+        <v>16018</v>
+      </c>
     </row>
-    <row r="160" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>165</v>
       </c>
@@ -35062,8 +35565,11 @@
       <c r="BM160">
         <v>1407</v>
       </c>
+      <c r="BN160">
+        <v>1413</v>
+      </c>
     </row>
-    <row r="161" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>166</v>
       </c>
@@ -35259,8 +35765,11 @@
       <c r="BM161">
         <v>1273</v>
       </c>
+      <c r="BN161">
+        <v>1274</v>
+      </c>
     </row>
-    <row r="162" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>167</v>
       </c>
@@ -35456,8 +35965,11 @@
       <c r="BM162">
         <v>1237</v>
       </c>
+      <c r="BN162">
+        <v>1238</v>
+      </c>
     </row>
-    <row r="163" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -35653,8 +36165,11 @@
       <c r="BM163">
         <v>1018</v>
       </c>
+      <c r="BN163">
+        <v>1018</v>
+      </c>
     </row>
-    <row r="164" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -35850,8 +36365,11 @@
       <c r="BM164">
         <v>990</v>
       </c>
+      <c r="BN164">
+        <v>990</v>
+      </c>
     </row>
-    <row r="165" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -36047,8 +36565,11 @@
       <c r="BM165">
         <v>936</v>
       </c>
+      <c r="BN165">
+        <v>936</v>
+      </c>
     </row>
-    <row r="166" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -36244,8 +36765,11 @@
       <c r="BM166">
         <v>766</v>
       </c>
+      <c r="BN166">
+        <v>767</v>
+      </c>
     </row>
-    <row r="167" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>109</v>
       </c>
@@ -36441,8 +36965,11 @@
       <c r="BM167">
         <v>712</v>
       </c>
+      <c r="BN167">
+        <v>712</v>
+      </c>
     </row>
-    <row r="168" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>173</v>
       </c>
@@ -36638,8 +37165,11 @@
       <c r="BM168">
         <v>633</v>
       </c>
+      <c r="BN168">
+        <v>633</v>
+      </c>
     </row>
-    <row r="169" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -36835,8 +37365,11 @@
       <c r="BM169">
         <v>577</v>
       </c>
+      <c r="BN169">
+        <v>577</v>
+      </c>
     </row>
-    <row r="170" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>175</v>
       </c>
@@ -37032,8 +37565,11 @@
       <c r="BM170">
         <v>543</v>
       </c>
+      <c r="BN170">
+        <v>543</v>
+      </c>
     </row>
-    <row r="171" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>176</v>
       </c>
@@ -37229,8 +37765,11 @@
       <c r="BM171">
         <v>484</v>
       </c>
+      <c r="BN171">
+        <v>484</v>
+      </c>
     </row>
-    <row r="172" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>177</v>
       </c>
@@ -37426,8 +37965,11 @@
       <c r="BM172">
         <v>1395</v>
       </c>
+      <c r="BN172">
+        <v>1395</v>
+      </c>
     </row>
-    <row r="173" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>178</v>
       </c>
@@ -37623,8 +38165,11 @@
       <c r="BM173">
         <v>514</v>
       </c>
+      <c r="BN173">
+        <v>522</v>
+      </c>
     </row>
-    <row r="174" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>179</v>
       </c>
@@ -37820,8 +38365,11 @@
       <c r="BM174">
         <v>394</v>
       </c>
+      <c r="BN174">
+        <v>404</v>
+      </c>
     </row>
-    <row r="175" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>180</v>
       </c>
@@ -38017,8 +38565,11 @@
       <c r="BM175">
         <v>319</v>
       </c>
+      <c r="BN175">
+        <v>319</v>
+      </c>
     </row>
-    <row r="176" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>181</v>
       </c>
@@ -38214,8 +38765,11 @@
       <c r="BM176">
         <v>307</v>
       </c>
+      <c r="BN176">
+        <v>313</v>
+      </c>
     </row>
-    <row r="177" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>182</v>
       </c>
@@ -38411,8 +38965,11 @@
       <c r="BM177">
         <v>254</v>
       </c>
+      <c r="BN177">
+        <v>254</v>
+      </c>
     </row>
-    <row r="178" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>183</v>
       </c>
@@ -38608,8 +39165,11 @@
       <c r="BM178">
         <v>248</v>
       </c>
+      <c r="BN178">
+        <v>248</v>
+      </c>
     </row>
-    <row r="179" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -38805,8 +39365,11 @@
       <c r="BM179">
         <v>176</v>
       </c>
+      <c r="BN179">
+        <v>176</v>
+      </c>
     </row>
-    <row r="180" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>185</v>
       </c>
@@ -39002,8 +39565,11 @@
       <c r="BM180">
         <v>168</v>
       </c>
+      <c r="BN180">
+        <v>168</v>
+      </c>
     </row>
-    <row r="181" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -39199,8 +39765,11 @@
       <c r="BM181">
         <v>146</v>
       </c>
+      <c r="BN181">
+        <v>146</v>
+      </c>
     </row>
-    <row r="182" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>187</v>
       </c>
@@ -39396,8 +39965,11 @@
       <c r="BM182">
         <v>137</v>
       </c>
+      <c r="BN182">
+        <v>141</v>
+      </c>
     </row>
-    <row r="183" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -39593,8 +40165,11 @@
       <c r="BM183">
         <v>133</v>
       </c>
+      <c r="BN183">
+        <v>133</v>
+      </c>
     </row>
-    <row r="184" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>189</v>
       </c>
@@ -39790,8 +40365,11 @@
       <c r="BM184">
         <v>136</v>
       </c>
+      <c r="BN184">
+        <v>136</v>
+      </c>
     </row>
-    <row r="185" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>190</v>
       </c>
@@ -39987,8 +40565,11 @@
       <c r="BM185">
         <v>317</v>
       </c>
+      <c r="BN185">
+        <v>317</v>
+      </c>
     </row>
-    <row r="186" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>191</v>
       </c>
@@ -40184,8 +40765,11 @@
       <c r="BM186">
         <v>126</v>
       </c>
+      <c r="BN186">
+        <v>127</v>
+      </c>
     </row>
-    <row r="187" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>192</v>
       </c>
@@ -40381,8 +40965,11 @@
       <c r="BM187">
         <v>93</v>
       </c>
+      <c r="BN187">
+        <v>93</v>
+      </c>
     </row>
-    <row r="188" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>193</v>
       </c>
@@ -40575,8 +41162,11 @@
       <c r="BM188">
         <v>1120</v>
       </c>
+      <c r="BN188">
+        <v>1120</v>
+      </c>
     </row>
-    <row r="189" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>194</v>
       </c>
@@ -40772,8 +41362,11 @@
       <c r="BM189">
         <v>76</v>
       </c>
+      <c r="BN189">
+        <v>76</v>
+      </c>
     </row>
-    <row r="190" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>195</v>
       </c>
@@ -40969,8 +41562,11 @@
       <c r="BM190">
         <v>75</v>
       </c>
+      <c r="BN190">
+        <v>75</v>
+      </c>
     </row>
-    <row r="191" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>196</v>
       </c>
@@ -41166,8 +41762,11 @@
       <c r="BM191">
         <v>75</v>
       </c>
+      <c r="BN191">
+        <v>75</v>
+      </c>
     </row>
-    <row r="192" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>197</v>
       </c>
@@ -41360,8 +41959,11 @@
       <c r="BM192">
         <v>169</v>
       </c>
+      <c r="BN192">
+        <v>169</v>
+      </c>
     </row>
-    <row r="193" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>198</v>
       </c>
@@ -41554,8 +42156,11 @@
       <c r="BM193">
         <v>113</v>
       </c>
+      <c r="BN193">
+        <v>113</v>
+      </c>
     </row>
-    <row r="194" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>199</v>
       </c>
@@ -41748,8 +42353,11 @@
       <c r="BM194">
         <v>367</v>
       </c>
+      <c r="BN194">
+        <v>367</v>
+      </c>
     </row>
-    <row r="195" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>200</v>
       </c>
@@ -41945,8 +42553,11 @@
       <c r="BM195">
         <v>18</v>
       </c>
+      <c r="BN195">
+        <v>18</v>
+      </c>
     </row>
-    <row r="196" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>201</v>
       </c>
@@ -42142,8 +42753,11 @@
       <c r="BM196">
         <v>20</v>
       </c>
+      <c r="BN196">
+        <v>24</v>
+      </c>
     </row>
-    <row r="197" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>202</v>
       </c>
@@ -42336,8 +42950,11 @@
       <c r="BM197">
         <v>94</v>
       </c>
+      <c r="BN197">
+        <v>94</v>
+      </c>
     </row>
-    <row r="198" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>203</v>
       </c>
@@ -42530,8 +43147,11 @@
       <c r="BM198">
         <v>24</v>
       </c>
+      <c r="BN198">
+        <v>24</v>
+      </c>
     </row>
-    <row r="199" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>204</v>
       </c>
@@ -42727,8 +43347,11 @@
       <c r="BM199">
         <v>115</v>
       </c>
+      <c r="BN199">
+        <v>115</v>
+      </c>
     </row>
-    <row r="200" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>205</v>
       </c>
@@ -42924,8 +43547,11 @@
       <c r="BM200">
         <v>4</v>
       </c>
+      <c r="BN200">
+        <v>4</v>
+      </c>
     </row>
-    <row r="201" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>206</v>
       </c>
@@ -43118,8 +43744,11 @@
       <c r="BM201">
         <v>26</v>
       </c>
+      <c r="BN201">
+        <v>26</v>
+      </c>
     </row>
-    <row r="202" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>207</v>
       </c>
@@ -43315,8 +43944,11 @@
       <c r="BM202">
         <v>32</v>
       </c>
+      <c r="BN202">
+        <v>32</v>
+      </c>
     </row>
-    <row r="203" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -43512,8 +44144,11 @@
       <c r="BM203">
         <v>17</v>
       </c>
+      <c r="BN203">
+        <v>17</v>
+      </c>
     </row>
-    <row r="204" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>210</v>
       </c>
@@ -43709,8 +44344,11 @@
       <c r="BM204">
         <v>1</v>
       </c>
+      <c r="BN204">
+        <v>1</v>
+      </c>
     </row>
-    <row r="205" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>211</v>
       </c>
@@ -43903,8 +44541,11 @@
       <c r="BM205">
         <v>30</v>
       </c>
+      <c r="BN205">
+        <v>30</v>
+      </c>
     </row>
-    <row r="206" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>212</v>
       </c>
@@ -44097,8 +44738,11 @@
       <c r="BM206">
         <v>14</v>
       </c>
+      <c r="BN206">
+        <v>14</v>
+      </c>
     </row>
-    <row r="207" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>213</v>
       </c>
@@ -44294,8 +44938,11 @@
       <c r="BM207">
         <v>3</v>
       </c>
+      <c r="BN207">
+        <v>3</v>
+      </c>
     </row>
-    <row r="208" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>214</v>
       </c>
@@ -44488,8 +45135,11 @@
       <c r="BM208">
         <v>16</v>
       </c>
+      <c r="BN208">
+        <v>16</v>
+      </c>
     </row>
-    <row r="209" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>215</v>
       </c>
@@ -44682,8 +45332,11 @@
       <c r="BM209">
         <v>1236</v>
       </c>
+      <c r="BN209">
+        <v>1236</v>
+      </c>
     </row>
-    <row r="210" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -44879,8 +45532,11 @@
       <c r="BM210">
         <v>15</v>
       </c>
+      <c r="BN210">
+        <v>15</v>
+      </c>
     </row>
-    <row r="211" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -45077,7 +45733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>218</v>
       </c>
@@ -45274,7 +45930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>219</v>
       </c>
@@ -45471,7 +46127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>220</v>
       </c>
@@ -45668,7 +46324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>221</v>
       </c>
@@ -45865,7 +46521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -46062,7 +46718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>223</v>
       </c>
@@ -46259,7 +46915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>224</v>
       </c>
@@ -46456,7 +47112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>225</v>
       </c>
@@ -46653,7 +47309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>226</v>
       </c>
@@ -46850,7 +47506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>227</v>
       </c>
@@ -47047,7 +47703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>228</v>
       </c>
@@ -47244,7 +47900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>229</v>
       </c>
@@ -47441,7 +48097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>230</v>
       </c>
@@ -82310,7 +82966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>407</v>
       </c>
@@ -82507,7 +83163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B402" t="s">
         <v>408</v>
       </c>
@@ -82700,8 +83356,11 @@
       <c r="BM402">
         <v>35</v>
       </c>
+      <c r="BN402">
+        <v>35</v>
+      </c>
     </row>
-    <row r="403" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B403" t="s">
         <v>409</v>
       </c>
@@ -82894,8 +83553,11 @@
       <c r="BM403">
         <v>7</v>
       </c>
+      <c r="BN403">
+        <v>7</v>
+      </c>
     </row>
-    <row r="404" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>410</v>
       </c>
@@ -83091,8 +83753,11 @@
       <c r="BM404">
         <v>19</v>
       </c>
+      <c r="BN404">
+        <v>19</v>
+      </c>
     </row>
-    <row r="405" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>208</v>
       </c>
@@ -83288,8 +83953,11 @@
       <c r="BM405">
         <v>5683</v>
       </c>
+      <c r="BN405">
+        <v>5683</v>
+      </c>
     </row>
-    <row r="406" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B406" t="s">
         <v>411</v>
       </c>
@@ -83482,8 +84150,11 @@
       <c r="BM406">
         <v>60</v>
       </c>
+      <c r="BN406">
+        <v>60</v>
+      </c>
     </row>
-    <row r="407" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>412</v>
       </c>
@@ -83679,8 +84350,11 @@
       <c r="BM407">
         <v>15</v>
       </c>
+      <c r="BN407">
+        <v>15</v>
+      </c>
     </row>
-    <row r="408" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>413</v>
       </c>
@@ -83876,8 +84550,11 @@
       <c r="BM408">
         <v>19</v>
       </c>
+      <c r="BN408">
+        <v>20</v>
+      </c>
     </row>
-    <row r="409" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>414</v>
       </c>
@@ -84073,8 +84750,11 @@
       <c r="BM409">
         <v>52</v>
       </c>
+      <c r="BN409">
+        <v>52</v>
+      </c>
     </row>
-    <row r="410" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B410" t="s">
         <v>415</v>
       </c>
@@ -84267,8 +84947,11 @@
       <c r="BM410">
         <v>11</v>
       </c>
+      <c r="BN410">
+        <v>11</v>
+      </c>
     </row>
-    <row r="411" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B411" t="s">
         <v>416</v>
       </c>
@@ -84461,8 +85144,11 @@
       <c r="BM411">
         <v>2</v>
       </c>
+      <c r="BN411">
+        <v>2</v>
+      </c>
     </row>
-    <row r="412" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B412" t="s">
         <v>417</v>
       </c>
@@ -84655,8 +85341,11 @@
       <c r="BM412">
         <v>2</v>
       </c>
+      <c r="BN412">
+        <v>2</v>
+      </c>
     </row>
-    <row r="413" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>110</v>
       </c>
@@ -84852,8 +85541,11 @@
       <c r="BM413">
         <v>13</v>
       </c>
+      <c r="BN413">
+        <v>13</v>
+      </c>
     </row>
-    <row r="414" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B414" t="s">
         <v>418</v>
       </c>
@@ -85046,8 +85738,11 @@
       <c r="BM414">
         <v>15</v>
       </c>
+      <c r="BN414">
+        <v>15</v>
+      </c>
     </row>
-    <row r="415" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B415" t="s">
         <v>419</v>
       </c>
@@ -85240,8 +85935,11 @@
       <c r="BM415">
         <v>1</v>
       </c>
+      <c r="BN415">
+        <v>1</v>
+      </c>
     </row>
-    <row r="416" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>420</v>
       </c>
@@ -85437,8 +86135,11 @@
       <c r="BM416">
         <v>138</v>
       </c>
+      <c r="BN416">
+        <v>138</v>
+      </c>
     </row>
-    <row r="417" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B417" t="s">
         <v>421</v>
       </c>
@@ -85631,8 +86332,11 @@
       <c r="BM417">
         <v>135</v>
       </c>
+      <c r="BN417">
+        <v>135</v>
+      </c>
     </row>
-    <row r="418" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B418" t="s">
         <v>422</v>
       </c>
@@ -85825,8 +86529,11 @@
       <c r="BM418">
         <v>24</v>
       </c>
+      <c r="BN418">
+        <v>24</v>
+      </c>
     </row>
-    <row r="419" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>423</v>
       </c>
@@ -86022,8 +86729,11 @@
       <c r="BM419">
         <v>23</v>
       </c>
+      <c r="BN419">
+        <v>23</v>
+      </c>
     </row>
-    <row r="420" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B420" t="s">
         <v>424</v>
       </c>
@@ -86216,8 +86926,11 @@
       <c r="BM420">
         <v>3</v>
       </c>
+      <c r="BN420">
+        <v>3</v>
+      </c>
     </row>
-    <row r="421" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B421" t="s">
         <v>425</v>
       </c>
@@ -86410,8 +87123,11 @@
       <c r="BM421">
         <v>7</v>
       </c>
+      <c r="BN421">
+        <v>7</v>
+      </c>
     </row>
-    <row r="422" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B422" t="s">
         <v>426</v>
       </c>
@@ -86604,8 +87320,11 @@
       <c r="BM422">
         <v>50</v>
       </c>
+      <c r="BN422">
+        <v>50</v>
+      </c>
     </row>
-    <row r="423" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B423" t="s">
         <v>427</v>
       </c>
@@ -86798,8 +87517,11 @@
       <c r="BM423">
         <v>70</v>
       </c>
+      <c r="BN423">
+        <v>70</v>
+      </c>
     </row>
-    <row r="424" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B424" t="s">
         <v>428</v>
       </c>
@@ -86992,8 +87714,11 @@
       <c r="BM424">
         <v>4</v>
       </c>
+      <c r="BN424">
+        <v>4</v>
+      </c>
     </row>
-    <row r="425" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B425" t="s">
         <v>429</v>
       </c>
@@ -87186,8 +87911,11 @@
       <c r="BM425">
         <v>5</v>
       </c>
+      <c r="BN425">
+        <v>5</v>
+      </c>
     </row>
-    <row r="426" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B426" t="s">
         <v>430</v>
       </c>
@@ -87380,8 +88108,11 @@
       <c r="BM426">
         <v>19</v>
       </c>
+      <c r="BN426">
+        <v>19</v>
+      </c>
     </row>
-    <row r="427" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B427" t="s">
         <v>431</v>
       </c>
@@ -87574,8 +88305,11 @@
       <c r="BM427">
         <v>2</v>
       </c>
+      <c r="BN427">
+        <v>2</v>
+      </c>
     </row>
-    <row r="428" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B428" t="s">
         <v>432</v>
       </c>
@@ -87768,8 +88502,11 @@
       <c r="BM428">
         <v>19</v>
       </c>
+      <c r="BN428">
+        <v>19</v>
+      </c>
     </row>
-    <row r="429" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B429" t="s">
         <v>433</v>
       </c>
@@ -87962,8 +88699,11 @@
       <c r="BM429">
         <v>2</v>
       </c>
+      <c r="BN429">
+        <v>2</v>
+      </c>
     </row>
-    <row r="430" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B430" t="s">
         <v>434</v>
       </c>
@@ -88156,8 +88896,11 @@
       <c r="BM430">
         <v>1</v>
       </c>
+      <c r="BN430">
+        <v>1</v>
+      </c>
     </row>
-    <row r="431" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B431" t="s">
         <v>435</v>
       </c>
@@ -88350,8 +89093,11 @@
       <c r="BM431">
         <v>5</v>
       </c>
+      <c r="BN431">
+        <v>5</v>
+      </c>
     </row>
-    <row r="432" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>436</v>
       </c>
@@ -88547,8 +89293,11 @@
       <c r="BM432">
         <v>18</v>
       </c>
+      <c r="BN432">
+        <v>0</v>
+      </c>
     </row>
-    <row r="433" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>437</v>
       </c>
@@ -88744,8 +89493,11 @@
       <c r="BM433">
         <v>27</v>
       </c>
+      <c r="BN433">
+        <v>27</v>
+      </c>
     </row>
-    <row r="434" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B434" t="s">
         <v>438</v>
       </c>
@@ -88938,8 +89690,11 @@
       <c r="BM434">
         <v>2</v>
       </c>
+      <c r="BN434">
+        <v>2</v>
+      </c>
     </row>
-    <row r="435" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>439</v>
       </c>
@@ -89135,8 +89890,11 @@
       <c r="BM435">
         <v>6</v>
       </c>
+      <c r="BN435">
+        <v>9</v>
+      </c>
     </row>
-    <row r="436" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>440</v>
       </c>
@@ -89332,8 +90090,11 @@
       <c r="BM436">
         <v>2</v>
       </c>
+      <c r="BN436">
+        <v>3</v>
+      </c>
     </row>
-    <row r="437" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B437" t="s">
         <v>441</v>
       </c>
@@ -89526,8 +90287,11 @@
       <c r="BM437">
         <v>3</v>
       </c>
+      <c r="BN437">
+        <v>3</v>
+      </c>
     </row>
-    <row r="438" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B438" t="s">
         <v>442</v>
       </c>
@@ -89720,8 +90484,11 @@
       <c r="BM438">
         <v>3</v>
       </c>
+      <c r="BN438">
+        <v>3</v>
+      </c>
     </row>
-    <row r="439" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B439" t="s">
         <v>443</v>
       </c>
@@ -89914,8 +90681,11 @@
       <c r="BM439">
         <v>6</v>
       </c>
+      <c r="BN439">
+        <v>6</v>
+      </c>
     </row>
-    <row r="440" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>444</v>
       </c>
@@ -90111,8 +90881,11 @@
       <c r="BM440">
         <v>11</v>
       </c>
+      <c r="BN440">
+        <v>0</v>
+      </c>
     </row>
-    <row r="441" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B441" t="s">
         <v>445</v>
       </c>
@@ -90305,8 +91078,11 @@
       <c r="BM441">
         <v>43</v>
       </c>
+      <c r="BN441">
+        <v>43</v>
+      </c>
     </row>
-    <row r="442" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>446</v>
       </c>
@@ -90502,8 +91278,11 @@
       <c r="BM442">
         <v>4204</v>
       </c>
+      <c r="BN442">
+        <v>4204</v>
+      </c>
     </row>
-    <row r="443" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>447</v>
       </c>
@@ -90699,8 +91478,11 @@
       <c r="BM443">
         <v>28</v>
       </c>
+      <c r="BN443">
+        <v>28</v>
+      </c>
     </row>
-    <row r="444" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>448</v>
       </c>
@@ -90896,8 +91678,11 @@
       <c r="BM444">
         <v>56</v>
       </c>
+      <c r="BN444">
+        <v>0</v>
+      </c>
     </row>
-    <row r="445" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B445" t="s">
         <v>449</v>
       </c>
@@ -91090,8 +91875,11 @@
       <c r="BM445">
         <v>2</v>
       </c>
+      <c r="BN445">
+        <v>2</v>
+      </c>
     </row>
-    <row r="446" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B446" t="s">
         <v>450</v>
       </c>
@@ -91284,8 +92072,11 @@
       <c r="BM446">
         <v>3</v>
       </c>
+      <c r="BN446">
+        <v>3</v>
+      </c>
     </row>
-    <row r="447" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>451</v>
       </c>
@@ -91481,8 +92272,11 @@
       <c r="BM447">
         <v>3</v>
       </c>
+      <c r="BN447">
+        <v>3</v>
+      </c>
     </row>
-    <row r="448" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B448" t="s">
         <v>452</v>
       </c>
@@ -91675,8 +92469,11 @@
       <c r="BM448">
         <v>1</v>
       </c>
+      <c r="BN448">
+        <v>1</v>
+      </c>
     </row>
-    <row r="449" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B449" t="s">
         <v>453</v>
       </c>
@@ -91869,8 +92666,11 @@
       <c r="BM449">
         <v>12</v>
       </c>
+      <c r="BN449">
+        <v>12</v>
+      </c>
     </row>
-    <row r="450" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>454</v>
       </c>
@@ -92067,7 +92867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>455</v>
       </c>
@@ -92263,8 +93063,11 @@
       <c r="BM451">
         <v>3</v>
       </c>
+      <c r="BN451">
+        <v>3</v>
+      </c>
     </row>
-    <row r="452" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>456</v>
       </c>
@@ -92460,8 +93263,11 @@
       <c r="BM452">
         <v>47</v>
       </c>
+      <c r="BN452">
+        <v>0</v>
+      </c>
     </row>
-    <row r="453" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B453" t="s">
         <v>457</v>
       </c>
@@ -92654,8 +93460,11 @@
       <c r="BM453">
         <v>14</v>
       </c>
+      <c r="BN453">
+        <v>14</v>
+      </c>
     </row>
-    <row r="454" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B454" t="s">
         <v>458</v>
       </c>
@@ -92848,8 +93657,11 @@
       <c r="BM454">
         <v>21</v>
       </c>
+      <c r="BN454">
+        <v>21</v>
+      </c>
     </row>
-    <row r="455" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B455" t="s">
         <v>459</v>
       </c>
@@ -93042,8 +93854,11 @@
       <c r="BM455">
         <v>14</v>
       </c>
+      <c r="BN455">
+        <v>14</v>
+      </c>
     </row>
-    <row r="456" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B456" t="s">
         <v>460</v>
       </c>
@@ -93236,8 +94051,11 @@
       <c r="BM456">
         <v>18</v>
       </c>
+      <c r="BN456">
+        <v>18</v>
+      </c>
     </row>
-    <row r="457" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>461</v>
       </c>
@@ -93433,8 +94251,11 @@
       <c r="BM457">
         <v>8</v>
       </c>
+      <c r="BN457">
+        <v>8</v>
+      </c>
     </row>
-    <row r="458" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B458" t="s">
         <v>462</v>
       </c>
@@ -93627,8 +94448,11 @@
       <c r="BM458">
         <v>3</v>
       </c>
+      <c r="BN458">
+        <v>3</v>
+      </c>
     </row>
-    <row r="459" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B459" t="s">
         <v>463</v>
       </c>
@@ -93821,8 +94645,11 @@
       <c r="BM459">
         <v>1</v>
       </c>
+      <c r="BN459">
+        <v>1</v>
+      </c>
     </row>
-    <row r="460" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B460" t="s">
         <v>464</v>
       </c>
@@ -94015,8 +94842,11 @@
       <c r="BM460">
         <v>1</v>
       </c>
+      <c r="BN460">
+        <v>1</v>
+      </c>
     </row>
-    <row r="461" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>465</v>
       </c>
@@ -94212,8 +95042,11 @@
       <c r="BM461">
         <v>1</v>
       </c>
+      <c r="BN461">
+        <v>1</v>
+      </c>
     </row>
-    <row r="462" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B462" t="s">
         <v>466</v>
       </c>
@@ -94406,8 +95239,11 @@
       <c r="BM462">
         <v>4</v>
       </c>
+      <c r="BN462">
+        <v>4</v>
+      </c>
     </row>
-    <row r="463" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>467</v>
       </c>
@@ -94603,8 +95439,11 @@
       <c r="BM463">
         <v>4</v>
       </c>
+      <c r="BN463">
+        <v>4</v>
+      </c>
     </row>
-    <row r="464" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>468</v>
       </c>
@@ -94800,8 +95639,11 @@
       <c r="BM464">
         <v>4</v>
       </c>
+      <c r="BN464">
+        <v>4</v>
+      </c>
     </row>
-    <row r="465" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>469</v>
       </c>
@@ -94997,8 +95839,11 @@
       <c r="BM465">
         <v>2</v>
       </c>
+      <c r="BN465">
+        <v>2</v>
+      </c>
     </row>
-    <row r="466" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B466" t="s">
         <v>470</v>
       </c>
@@ -95191,8 +96036,11 @@
       <c r="BM466">
         <v>1</v>
       </c>
+      <c r="BN466">
+        <v>1</v>
+      </c>
     </row>
-    <row r="467" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B467" t="s">
         <v>471</v>
       </c>
@@ -95385,8 +96233,11 @@
       <c r="BM467">
         <v>3</v>
       </c>
+      <c r="BN467">
+        <v>3</v>
+      </c>
     </row>
-    <row r="468" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B468" t="s">
         <v>472</v>
       </c>
@@ -95579,8 +96430,11 @@
       <c r="BM468">
         <v>2</v>
       </c>
+      <c r="BN468">
+        <v>2</v>
+      </c>
     </row>
-    <row r="469" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B469" t="s">
         <v>473</v>
       </c>
@@ -95773,8 +96627,11 @@
       <c r="BM469">
         <v>2</v>
       </c>
+      <c r="BN469">
+        <v>2</v>
+      </c>
     </row>
-    <row r="470" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B470" t="s">
         <v>474</v>
       </c>
@@ -95967,8 +96824,11 @@
       <c r="BM470">
         <v>3</v>
       </c>
+      <c r="BN470">
+        <v>3</v>
+      </c>
     </row>
-    <row r="471" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B471" t="s">
         <v>475</v>
       </c>
@@ -96161,8 +97021,11 @@
       <c r="BM471">
         <v>2</v>
       </c>
+      <c r="BN471">
+        <v>2</v>
+      </c>
     </row>
-    <row r="472" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B472" t="s">
         <v>476</v>
       </c>
@@ -96355,8 +97218,11 @@
       <c r="BM472">
         <v>2</v>
       </c>
+      <c r="BN472">
+        <v>2</v>
+      </c>
     </row>
-    <row r="473" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B473" t="s">
         <v>477</v>
       </c>
@@ -96549,8 +97415,11 @@
       <c r="BM473">
         <v>3</v>
       </c>
+      <c r="BN473">
+        <v>3</v>
+      </c>
     </row>
-    <row r="474" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>478</v>
       </c>
@@ -96746,8 +97615,11 @@
       <c r="BM474">
         <v>1</v>
       </c>
+      <c r="BN474">
+        <v>1</v>
+      </c>
     </row>
-    <row r="475" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B475" t="s">
         <v>479</v>
       </c>
@@ -96940,8 +97812,11 @@
       <c r="BM475">
         <v>2</v>
       </c>
+      <c r="BN475">
+        <v>2</v>
+      </c>
     </row>
-    <row r="476" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B476" t="s">
         <v>480</v>
       </c>
@@ -97134,8 +98009,11 @@
       <c r="BM476">
         <v>1</v>
       </c>
+      <c r="BN476">
+        <v>1</v>
+      </c>
     </row>
-    <row r="477" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>481</v>
       </c>
@@ -97331,8 +98209,11 @@
       <c r="BM477">
         <v>5</v>
       </c>
+      <c r="BN477">
+        <v>5</v>
+      </c>
     </row>
-    <row r="478" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B478" t="s">
         <v>482</v>
       </c>
@@ -97525,8 +98406,11 @@
       <c r="BM478">
         <v>3</v>
       </c>
+      <c r="BN478">
+        <v>3</v>
+      </c>
     </row>
-    <row r="479" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>483</v>
       </c>
@@ -97722,8 +98606,11 @@
       <c r="BM479">
         <v>1</v>
       </c>
+      <c r="BN479">
+        <v>1</v>
+      </c>
     </row>
-    <row r="480" spans="1:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B480" t="s">
         <v>484</v>
       </c>
@@ -97916,8 +98803,11 @@
       <c r="BM480">
         <v>1</v>
       </c>
+      <c r="BN480">
+        <v>0</v>
+      </c>
     </row>
-    <row r="481" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B481" t="s">
         <v>485</v>
       </c>
@@ -98110,8 +99000,11 @@
       <c r="BM481">
         <v>1</v>
       </c>
+      <c r="BN481">
+        <v>0</v>
+      </c>
     </row>
-    <row r="482" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B482" t="s">
         <v>486</v>
       </c>
@@ -98304,8 +99197,11 @@
       <c r="BM482">
         <v>1</v>
       </c>
+      <c r="BN482">
+        <v>1</v>
+      </c>
     </row>
-    <row r="483" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B483" t="s">
         <v>487</v>
       </c>
@@ -98498,8 +99394,11 @@
       <c r="BM483">
         <v>1</v>
       </c>
+      <c r="BN483">
+        <v>1</v>
+      </c>
     </row>
-    <row r="484" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B484" t="s">
         <v>488</v>
       </c>
@@ -98692,8 +99591,11 @@
       <c r="BM484">
         <v>1</v>
       </c>
+      <c r="BN484">
+        <v>1</v>
+      </c>
     </row>
-    <row r="485" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B485" t="s">
         <v>489</v>
       </c>
@@ -98886,8 +99788,11 @@
       <c r="BM485">
         <v>1</v>
       </c>
+      <c r="BN485">
+        <v>1</v>
+      </c>
     </row>
-    <row r="486" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B486" t="s">
         <v>490</v>
       </c>
@@ -99080,8 +99985,11 @@
       <c r="BM486">
         <v>1</v>
       </c>
+      <c r="BN486">
+        <v>1</v>
+      </c>
     </row>
-    <row r="487" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B487" t="s">
         <v>491</v>
       </c>
@@ -99274,8 +100182,11 @@
       <c r="BM487">
         <v>1</v>
       </c>
+      <c r="BN487">
+        <v>1</v>
+      </c>
     </row>
-    <row r="488" spans="2:65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B488" t="s">
         <v>492</v>
       </c>
@@ -99468,1000 +100379,3789 @@
       <c r="BM488">
         <v>1</v>
       </c>
+      <c r="BN488">
+        <v>1</v>
+      </c>
     </row>
-    <row r="490" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B489" t="s">
+        <v>448</v>
+      </c>
+      <c r="C489">
+        <v>16.265000000000001</v>
+      </c>
+      <c r="D489">
+        <v>-61.551000000000002</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>0</v>
+      </c>
+      <c r="G489">
+        <v>0</v>
+      </c>
+      <c r="H489">
+        <v>0</v>
+      </c>
+      <c r="I489">
+        <v>0</v>
+      </c>
+      <c r="J489">
+        <v>0</v>
+      </c>
+      <c r="K489">
+        <v>0</v>
+      </c>
+      <c r="L489">
+        <v>0</v>
+      </c>
+      <c r="M489">
+        <v>0</v>
+      </c>
+      <c r="N489">
+        <v>0</v>
+      </c>
+      <c r="O489">
+        <v>0</v>
+      </c>
+      <c r="P489">
+        <v>0</v>
+      </c>
+      <c r="Q489">
+        <v>0</v>
+      </c>
+      <c r="R489">
+        <v>0</v>
+      </c>
+      <c r="S489">
+        <v>0</v>
+      </c>
+      <c r="T489">
+        <v>0</v>
+      </c>
+      <c r="U489">
+        <v>0</v>
+      </c>
+      <c r="V489">
+        <v>0</v>
+      </c>
+      <c r="W489">
+        <v>0</v>
+      </c>
+      <c r="X489">
+        <v>0</v>
+      </c>
+      <c r="Y489">
+        <v>0</v>
+      </c>
+      <c r="Z489">
+        <v>0</v>
+      </c>
+      <c r="AA489">
+        <v>0</v>
+      </c>
+      <c r="AB489">
+        <v>0</v>
+      </c>
+      <c r="AC489">
+        <v>0</v>
+      </c>
+      <c r="AD489">
+        <v>0</v>
+      </c>
+      <c r="AE489">
+        <v>0</v>
+      </c>
+      <c r="AF489">
+        <v>0</v>
+      </c>
+      <c r="AG489">
+        <v>0</v>
+      </c>
+      <c r="AH489">
+        <v>0</v>
+      </c>
+      <c r="AI489">
+        <v>0</v>
+      </c>
+      <c r="AJ489">
+        <v>0</v>
+      </c>
+      <c r="AK489">
+        <v>0</v>
+      </c>
+      <c r="AL489">
+        <v>0</v>
+      </c>
+      <c r="AM489">
+        <v>0</v>
+      </c>
+      <c r="AN489">
+        <v>0</v>
+      </c>
+      <c r="AO489">
+        <v>0</v>
+      </c>
+      <c r="AP489">
+        <v>0</v>
+      </c>
+      <c r="AQ489">
+        <v>0</v>
+      </c>
+      <c r="AR489">
+        <v>0</v>
+      </c>
+      <c r="AS489">
+        <v>0</v>
+      </c>
+      <c r="AT489">
+        <v>0</v>
+      </c>
+      <c r="AU489">
+        <v>0</v>
+      </c>
+      <c r="AV489">
+        <v>0</v>
+      </c>
+      <c r="AW489">
+        <v>0</v>
+      </c>
+      <c r="AX489">
+        <v>0</v>
+      </c>
+      <c r="AY489">
+        <v>0</v>
+      </c>
+      <c r="AZ489">
+        <v>0</v>
+      </c>
+      <c r="BA489">
+        <v>0</v>
+      </c>
+      <c r="BB489">
+        <v>0</v>
+      </c>
+      <c r="BC489">
+        <v>0</v>
+      </c>
+      <c r="BD489">
+        <v>0</v>
+      </c>
+      <c r="BE489">
+        <v>0</v>
+      </c>
+      <c r="BF489">
+        <v>0</v>
+      </c>
+      <c r="BG489">
+        <v>0</v>
+      </c>
+      <c r="BH489">
+        <v>0</v>
+      </c>
+      <c r="BI489">
+        <v>0</v>
+      </c>
+      <c r="BJ489">
+        <v>0</v>
+      </c>
+      <c r="BK489">
+        <v>0</v>
+      </c>
+      <c r="BL489">
+        <v>0</v>
+      </c>
+      <c r="BM489">
+        <v>0</v>
+      </c>
+      <c r="BN489">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="490" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B490" t="s">
+        <v>456</v>
+      </c>
+      <c r="C490">
+        <v>-21.115100000000002</v>
+      </c>
+      <c r="D490">
+        <v>55.5364</v>
+      </c>
+      <c r="E490">
+        <v>0</v>
+      </c>
+      <c r="F490">
+        <v>0</v>
+      </c>
+      <c r="G490">
+        <v>0</v>
+      </c>
+      <c r="H490">
+        <v>0</v>
+      </c>
+      <c r="I490">
+        <v>0</v>
+      </c>
+      <c r="J490">
+        <v>0</v>
+      </c>
+      <c r="K490">
+        <v>0</v>
+      </c>
+      <c r="L490">
+        <v>0</v>
+      </c>
+      <c r="M490">
+        <v>0</v>
+      </c>
+      <c r="N490">
+        <v>0</v>
+      </c>
+      <c r="O490">
+        <v>0</v>
+      </c>
+      <c r="P490">
+        <v>0</v>
+      </c>
+      <c r="Q490">
+        <v>0</v>
+      </c>
+      <c r="R490">
+        <v>0</v>
+      </c>
+      <c r="S490">
+        <v>0</v>
+      </c>
+      <c r="T490">
+        <v>0</v>
+      </c>
+      <c r="U490">
+        <v>0</v>
+      </c>
+      <c r="V490">
+        <v>0</v>
+      </c>
+      <c r="W490">
+        <v>0</v>
+      </c>
+      <c r="X490">
+        <v>0</v>
+      </c>
+      <c r="Y490">
+        <v>0</v>
+      </c>
+      <c r="Z490">
+        <v>0</v>
+      </c>
+      <c r="AA490">
+        <v>0</v>
+      </c>
+      <c r="AB490">
+        <v>0</v>
+      </c>
+      <c r="AC490">
+        <v>0</v>
+      </c>
+      <c r="AD490">
+        <v>0</v>
+      </c>
+      <c r="AE490">
+        <v>0</v>
+      </c>
+      <c r="AF490">
+        <v>0</v>
+      </c>
+      <c r="AG490">
+        <v>0</v>
+      </c>
+      <c r="AH490">
+        <v>0</v>
+      </c>
+      <c r="AI490">
+        <v>0</v>
+      </c>
+      <c r="AJ490">
+        <v>0</v>
+      </c>
+      <c r="AK490">
+        <v>0</v>
+      </c>
+      <c r="AL490">
+        <v>0</v>
+      </c>
+      <c r="AM490">
+        <v>0</v>
+      </c>
+      <c r="AN490">
+        <v>0</v>
+      </c>
+      <c r="AO490">
+        <v>0</v>
+      </c>
+      <c r="AP490">
+        <v>0</v>
+      </c>
+      <c r="AQ490">
+        <v>0</v>
+      </c>
+      <c r="AR490">
+        <v>0</v>
+      </c>
+      <c r="AS490">
+        <v>0</v>
+      </c>
+      <c r="AT490">
+        <v>0</v>
+      </c>
+      <c r="AU490">
+        <v>0</v>
+      </c>
+      <c r="AV490">
+        <v>0</v>
+      </c>
+      <c r="AW490">
+        <v>0</v>
+      </c>
+      <c r="AX490">
+        <v>0</v>
+      </c>
+      <c r="AY490">
+        <v>0</v>
+      </c>
+      <c r="AZ490">
+        <v>0</v>
+      </c>
+      <c r="BA490">
+        <v>0</v>
+      </c>
+      <c r="BB490">
+        <v>0</v>
+      </c>
+      <c r="BC490">
+        <v>0</v>
+      </c>
+      <c r="BD490">
+        <v>0</v>
+      </c>
+      <c r="BE490">
+        <v>0</v>
+      </c>
+      <c r="BF490">
+        <v>0</v>
+      </c>
+      <c r="BG490">
+        <v>0</v>
+      </c>
+      <c r="BH490">
+        <v>0</v>
+      </c>
+      <c r="BI490">
+        <v>0</v>
+      </c>
+      <c r="BJ490">
+        <v>0</v>
+      </c>
+      <c r="BK490">
+        <v>0</v>
+      </c>
+      <c r="BL490">
+        <v>0</v>
+      </c>
+      <c r="BM490">
+        <v>0</v>
+      </c>
+      <c r="BN490">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="491" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B491" t="s">
+        <v>436</v>
+      </c>
+      <c r="C491">
+        <v>3.9339</v>
+      </c>
+      <c r="D491">
+        <v>-53.125799999999998</v>
+      </c>
+      <c r="E491">
+        <v>0</v>
+      </c>
+      <c r="F491">
+        <v>0</v>
+      </c>
+      <c r="G491">
+        <v>0</v>
+      </c>
+      <c r="H491">
+        <v>0</v>
+      </c>
+      <c r="I491">
+        <v>0</v>
+      </c>
+      <c r="J491">
+        <v>0</v>
+      </c>
+      <c r="K491">
+        <v>0</v>
+      </c>
+      <c r="L491">
+        <v>0</v>
+      </c>
+      <c r="M491">
+        <v>0</v>
+      </c>
+      <c r="N491">
+        <v>0</v>
+      </c>
+      <c r="O491">
+        <v>0</v>
+      </c>
+      <c r="P491">
+        <v>0</v>
+      </c>
+      <c r="Q491">
+        <v>0</v>
+      </c>
+      <c r="R491">
+        <v>0</v>
+      </c>
+      <c r="S491">
+        <v>0</v>
+      </c>
+      <c r="T491">
+        <v>0</v>
+      </c>
+      <c r="U491">
+        <v>0</v>
+      </c>
+      <c r="V491">
+        <v>0</v>
+      </c>
+      <c r="W491">
+        <v>0</v>
+      </c>
+      <c r="X491">
+        <v>0</v>
+      </c>
+      <c r="Y491">
+        <v>0</v>
+      </c>
+      <c r="Z491">
+        <v>0</v>
+      </c>
+      <c r="AA491">
+        <v>0</v>
+      </c>
+      <c r="AB491">
+        <v>0</v>
+      </c>
+      <c r="AC491">
+        <v>0</v>
+      </c>
+      <c r="AD491">
+        <v>0</v>
+      </c>
+      <c r="AE491">
+        <v>0</v>
+      </c>
+      <c r="AF491">
+        <v>0</v>
+      </c>
+      <c r="AG491">
+        <v>0</v>
+      </c>
+      <c r="AH491">
+        <v>0</v>
+      </c>
+      <c r="AI491">
+        <v>0</v>
+      </c>
+      <c r="AJ491">
+        <v>0</v>
+      </c>
+      <c r="AK491">
+        <v>0</v>
+      </c>
+      <c r="AL491">
+        <v>0</v>
+      </c>
+      <c r="AM491">
+        <v>0</v>
+      </c>
+      <c r="AN491">
+        <v>0</v>
+      </c>
+      <c r="AO491">
+        <v>0</v>
+      </c>
+      <c r="AP491">
+        <v>0</v>
+      </c>
+      <c r="AQ491">
+        <v>0</v>
+      </c>
+      <c r="AR491">
+        <v>0</v>
+      </c>
+      <c r="AS491">
+        <v>0</v>
+      </c>
+      <c r="AT491">
+        <v>0</v>
+      </c>
+      <c r="AU491">
+        <v>0</v>
+      </c>
+      <c r="AV491">
+        <v>0</v>
+      </c>
+      <c r="AW491">
+        <v>0</v>
+      </c>
+      <c r="AX491">
+        <v>0</v>
+      </c>
+      <c r="AY491">
+        <v>0</v>
+      </c>
+      <c r="AZ491">
+        <v>0</v>
+      </c>
+      <c r="BA491">
+        <v>0</v>
+      </c>
+      <c r="BB491">
+        <v>0</v>
+      </c>
+      <c r="BC491">
+        <v>0</v>
+      </c>
+      <c r="BD491">
+        <v>0</v>
+      </c>
+      <c r="BE491">
+        <v>0</v>
+      </c>
+      <c r="BF491">
+        <v>0</v>
+      </c>
+      <c r="BG491">
+        <v>0</v>
+      </c>
+      <c r="BH491">
+        <v>0</v>
+      </c>
+      <c r="BI491">
+        <v>0</v>
+      </c>
+      <c r="BJ491">
+        <v>0</v>
+      </c>
+      <c r="BK491">
+        <v>0</v>
+      </c>
+      <c r="BL491">
+        <v>0</v>
+      </c>
+      <c r="BM491">
+        <v>0</v>
+      </c>
+      <c r="BN491">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="492" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B492" t="s">
+        <v>444</v>
+      </c>
+      <c r="C492">
+        <v>-12.827500000000001</v>
+      </c>
+      <c r="D492">
+        <v>45.166200000000003</v>
+      </c>
+      <c r="E492">
+        <v>0</v>
+      </c>
+      <c r="F492">
+        <v>0</v>
+      </c>
+      <c r="G492">
+        <v>0</v>
+      </c>
+      <c r="H492">
+        <v>0</v>
+      </c>
+      <c r="I492">
+        <v>0</v>
+      </c>
+      <c r="J492">
+        <v>0</v>
+      </c>
+      <c r="K492">
+        <v>0</v>
+      </c>
+      <c r="L492">
+        <v>0</v>
+      </c>
+      <c r="M492">
+        <v>0</v>
+      </c>
+      <c r="N492">
+        <v>0</v>
+      </c>
+      <c r="O492">
+        <v>0</v>
+      </c>
+      <c r="P492">
+        <v>0</v>
+      </c>
+      <c r="Q492">
+        <v>0</v>
+      </c>
+      <c r="R492">
+        <v>0</v>
+      </c>
+      <c r="S492">
+        <v>0</v>
+      </c>
+      <c r="T492">
+        <v>0</v>
+      </c>
+      <c r="U492">
+        <v>0</v>
+      </c>
+      <c r="V492">
+        <v>0</v>
+      </c>
+      <c r="W492">
+        <v>0</v>
+      </c>
+      <c r="X492">
+        <v>0</v>
+      </c>
+      <c r="Y492">
+        <v>0</v>
+      </c>
+      <c r="Z492">
+        <v>0</v>
+      </c>
+      <c r="AA492">
+        <v>0</v>
+      </c>
+      <c r="AB492">
+        <v>0</v>
+      </c>
+      <c r="AC492">
+        <v>0</v>
+      </c>
+      <c r="AD492">
+        <v>0</v>
+      </c>
+      <c r="AE492">
+        <v>0</v>
+      </c>
+      <c r="AF492">
+        <v>0</v>
+      </c>
+      <c r="AG492">
+        <v>0</v>
+      </c>
+      <c r="AH492">
+        <v>0</v>
+      </c>
+      <c r="AI492">
+        <v>0</v>
+      </c>
+      <c r="AJ492">
+        <v>0</v>
+      </c>
+      <c r="AK492">
+        <v>0</v>
+      </c>
+      <c r="AL492">
+        <v>0</v>
+      </c>
+      <c r="AM492">
+        <v>0</v>
+      </c>
+      <c r="AN492">
+        <v>0</v>
+      </c>
+      <c r="AO492">
+        <v>0</v>
+      </c>
+      <c r="AP492">
+        <v>0</v>
+      </c>
+      <c r="AQ492">
+        <v>0</v>
+      </c>
+      <c r="AR492">
+        <v>0</v>
+      </c>
+      <c r="AS492">
+        <v>0</v>
+      </c>
+      <c r="AT492">
+        <v>0</v>
+      </c>
+      <c r="AU492">
+        <v>0</v>
+      </c>
+      <c r="AV492">
+        <v>0</v>
+      </c>
+      <c r="AW492">
+        <v>0</v>
+      </c>
+      <c r="AX492">
+        <v>0</v>
+      </c>
+      <c r="AY492">
+        <v>0</v>
+      </c>
+      <c r="AZ492">
+        <v>0</v>
+      </c>
+      <c r="BA492">
+        <v>0</v>
+      </c>
+      <c r="BB492">
+        <v>0</v>
+      </c>
+      <c r="BC492">
+        <v>0</v>
+      </c>
+      <c r="BD492">
+        <v>0</v>
+      </c>
+      <c r="BE492">
+        <v>0</v>
+      </c>
+      <c r="BF492">
+        <v>0</v>
+      </c>
+      <c r="BG492">
+        <v>0</v>
+      </c>
+      <c r="BH492">
+        <v>0</v>
+      </c>
+      <c r="BI492">
+        <v>0</v>
+      </c>
+      <c r="BJ492">
+        <v>0</v>
+      </c>
+      <c r="BK492">
+        <v>0</v>
+      </c>
+      <c r="BL492">
+        <v>0</v>
+      </c>
+      <c r="BM492">
+        <v>0</v>
+      </c>
+      <c r="BN492">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="493" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>558</v>
+      </c>
+      <c r="B493" t="s">
+        <v>105</v>
+      </c>
+      <c r="C493">
+        <v>18.335799999999999</v>
+      </c>
+      <c r="D493">
+        <v>-64.896299999999997</v>
+      </c>
+      <c r="E493">
+        <v>0</v>
+      </c>
+      <c r="F493">
+        <v>0</v>
+      </c>
+      <c r="G493">
+        <v>0</v>
+      </c>
+      <c r="H493">
+        <v>0</v>
+      </c>
+      <c r="I493">
+        <v>0</v>
+      </c>
+      <c r="J493">
+        <v>0</v>
+      </c>
+      <c r="K493">
+        <v>0</v>
+      </c>
+      <c r="L493">
+        <v>0</v>
+      </c>
+      <c r="M493">
+        <v>0</v>
+      </c>
+      <c r="N493">
+        <v>0</v>
+      </c>
+      <c r="O493">
+        <v>0</v>
+      </c>
+      <c r="P493">
+        <v>0</v>
+      </c>
+      <c r="Q493">
+        <v>0</v>
+      </c>
+      <c r="R493">
+        <v>0</v>
+      </c>
+      <c r="S493">
+        <v>0</v>
+      </c>
+      <c r="T493">
+        <v>0</v>
+      </c>
+      <c r="U493">
+        <v>0</v>
+      </c>
+      <c r="V493">
+        <v>0</v>
+      </c>
+      <c r="W493">
+        <v>0</v>
+      </c>
+      <c r="X493">
+        <v>0</v>
+      </c>
+      <c r="Y493">
+        <v>0</v>
+      </c>
+      <c r="Z493">
+        <v>0</v>
+      </c>
+      <c r="AA493">
+        <v>0</v>
+      </c>
+      <c r="AB493">
+        <v>0</v>
+      </c>
+      <c r="AC493">
+        <v>0</v>
+      </c>
+      <c r="AD493">
+        <v>0</v>
+      </c>
+      <c r="AE493">
+        <v>0</v>
+      </c>
+      <c r="AF493">
+        <v>0</v>
+      </c>
+      <c r="AG493">
+        <v>0</v>
+      </c>
+      <c r="AH493">
+        <v>0</v>
+      </c>
+      <c r="AI493">
+        <v>0</v>
+      </c>
+      <c r="AJ493">
+        <v>0</v>
+      </c>
+      <c r="AK493">
+        <v>0</v>
+      </c>
+      <c r="AL493">
+        <v>0</v>
+      </c>
+      <c r="AM493">
+        <v>0</v>
+      </c>
+      <c r="AN493">
+        <v>0</v>
+      </c>
+      <c r="AO493">
+        <v>0</v>
+      </c>
+      <c r="AP493">
+        <v>0</v>
+      </c>
+      <c r="AQ493">
+        <v>0</v>
+      </c>
+      <c r="AR493">
+        <v>0</v>
+      </c>
+      <c r="AS493">
+        <v>0</v>
+      </c>
+      <c r="AT493">
+        <v>0</v>
+      </c>
+      <c r="AU493">
+        <v>0</v>
+      </c>
+      <c r="AV493">
+        <v>0</v>
+      </c>
+      <c r="AW493">
+        <v>0</v>
+      </c>
+      <c r="AX493">
+        <v>0</v>
+      </c>
+      <c r="AY493">
+        <v>0</v>
+      </c>
+      <c r="AZ493">
+        <v>0</v>
+      </c>
+      <c r="BA493">
+        <v>0</v>
+      </c>
+      <c r="BB493">
+        <v>0</v>
+      </c>
+      <c r="BC493">
+        <v>0</v>
+      </c>
+      <c r="BD493">
+        <v>0</v>
+      </c>
+      <c r="BE493">
+        <v>0</v>
+      </c>
+      <c r="BF493">
+        <v>0</v>
+      </c>
+      <c r="BG493">
+        <v>0</v>
+      </c>
+      <c r="BH493">
+        <v>0</v>
+      </c>
+      <c r="BI493">
+        <v>0</v>
+      </c>
+      <c r="BJ493">
+        <v>0</v>
+      </c>
+      <c r="BK493">
+        <v>0</v>
+      </c>
+      <c r="BL493">
+        <v>0</v>
+      </c>
+      <c r="BM493">
+        <v>0</v>
+      </c>
+      <c r="BN493">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="494" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>105</v>
+      </c>
+      <c r="B494" t="s">
+        <v>105</v>
+      </c>
+      <c r="C494">
+        <v>37.090200000000003</v>
+      </c>
+      <c r="D494">
+        <v>-95.712900000000005</v>
+      </c>
+      <c r="E494">
+        <v>0</v>
+      </c>
+      <c r="F494">
+        <v>0</v>
+      </c>
+      <c r="G494">
+        <v>0</v>
+      </c>
+      <c r="H494">
+        <v>0</v>
+      </c>
+      <c r="I494">
+        <v>0</v>
+      </c>
+      <c r="J494">
+        <v>0</v>
+      </c>
+      <c r="K494">
+        <v>0</v>
+      </c>
+      <c r="L494">
+        <v>0</v>
+      </c>
+      <c r="M494">
+        <v>0</v>
+      </c>
+      <c r="N494">
+        <v>0</v>
+      </c>
+      <c r="O494">
+        <v>0</v>
+      </c>
+      <c r="P494">
+        <v>0</v>
+      </c>
+      <c r="Q494">
+        <v>0</v>
+      </c>
+      <c r="R494">
+        <v>0</v>
+      </c>
+      <c r="S494">
+        <v>0</v>
+      </c>
+      <c r="T494">
+        <v>0</v>
+      </c>
+      <c r="U494">
+        <v>0</v>
+      </c>
+      <c r="V494">
+        <v>0</v>
+      </c>
+      <c r="W494">
+        <v>0</v>
+      </c>
+      <c r="X494">
+        <v>0</v>
+      </c>
+      <c r="Y494">
+        <v>0</v>
+      </c>
+      <c r="Z494">
+        <v>0</v>
+      </c>
+      <c r="AA494">
+        <v>0</v>
+      </c>
+      <c r="AB494">
+        <v>0</v>
+      </c>
+      <c r="AC494">
+        <v>0</v>
+      </c>
+      <c r="AD494">
+        <v>0</v>
+      </c>
+      <c r="AE494">
+        <v>0</v>
+      </c>
+      <c r="AF494">
+        <v>0</v>
+      </c>
+      <c r="AG494">
+        <v>0</v>
+      </c>
+      <c r="AH494">
+        <v>0</v>
+      </c>
+      <c r="AI494">
+        <v>0</v>
+      </c>
+      <c r="AJ494">
+        <v>0</v>
+      </c>
+      <c r="AK494">
+        <v>0</v>
+      </c>
+      <c r="AL494">
+        <v>0</v>
+      </c>
+      <c r="AM494">
+        <v>0</v>
+      </c>
+      <c r="AN494">
+        <v>0</v>
+      </c>
+      <c r="AO494">
+        <v>0</v>
+      </c>
+      <c r="AP494">
+        <v>0</v>
+      </c>
+      <c r="AQ494">
+        <v>0</v>
+      </c>
+      <c r="AR494">
+        <v>0</v>
+      </c>
+      <c r="AS494">
+        <v>0</v>
+      </c>
+      <c r="AT494">
+        <v>0</v>
+      </c>
+      <c r="AU494">
+        <v>0</v>
+      </c>
+      <c r="AV494">
+        <v>0</v>
+      </c>
+      <c r="AW494">
+        <v>0</v>
+      </c>
+      <c r="AX494">
+        <v>0</v>
+      </c>
+      <c r="AY494">
+        <v>0</v>
+      </c>
+      <c r="AZ494">
+        <v>0</v>
+      </c>
+      <c r="BA494">
+        <v>0</v>
+      </c>
+      <c r="BB494">
+        <v>0</v>
+      </c>
+      <c r="BC494">
+        <v>0</v>
+      </c>
+      <c r="BD494">
+        <v>0</v>
+      </c>
+      <c r="BE494">
+        <v>0</v>
+      </c>
+      <c r="BF494">
+        <v>0</v>
+      </c>
+      <c r="BG494">
+        <v>0</v>
+      </c>
+      <c r="BH494">
+        <v>0</v>
+      </c>
+      <c r="BI494">
+        <v>0</v>
+      </c>
+      <c r="BJ494">
+        <v>0</v>
+      </c>
+      <c r="BK494">
+        <v>0</v>
+      </c>
+      <c r="BL494">
+        <v>0</v>
+      </c>
+      <c r="BM494">
+        <v>0</v>
+      </c>
+      <c r="BN494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B495" t="s">
+        <v>467</v>
+      </c>
+      <c r="C495">
+        <v>72</v>
+      </c>
+      <c r="D495">
+        <v>-40</v>
+      </c>
+      <c r="E495">
+        <v>0</v>
+      </c>
+      <c r="F495">
+        <v>0</v>
+      </c>
+      <c r="G495">
+        <v>0</v>
+      </c>
+      <c r="H495">
+        <v>0</v>
+      </c>
+      <c r="I495">
+        <v>0</v>
+      </c>
+      <c r="J495">
+        <v>0</v>
+      </c>
+      <c r="K495">
+        <v>0</v>
+      </c>
+      <c r="L495">
+        <v>0</v>
+      </c>
+      <c r="M495">
+        <v>0</v>
+      </c>
+      <c r="N495">
+        <v>0</v>
+      </c>
+      <c r="O495">
+        <v>0</v>
+      </c>
+      <c r="P495">
+        <v>0</v>
+      </c>
+      <c r="Q495">
+        <v>0</v>
+      </c>
+      <c r="R495">
+        <v>0</v>
+      </c>
+      <c r="S495">
+        <v>0</v>
+      </c>
+      <c r="T495">
+        <v>0</v>
+      </c>
+      <c r="U495">
+        <v>0</v>
+      </c>
+      <c r="V495">
+        <v>0</v>
+      </c>
+      <c r="W495">
+        <v>0</v>
+      </c>
+      <c r="X495">
+        <v>0</v>
+      </c>
+      <c r="Y495">
+        <v>0</v>
+      </c>
+      <c r="Z495">
+        <v>0</v>
+      </c>
+      <c r="AA495">
+        <v>0</v>
+      </c>
+      <c r="AB495">
+        <v>0</v>
+      </c>
+      <c r="AC495">
+        <v>0</v>
+      </c>
+      <c r="AD495">
+        <v>0</v>
+      </c>
+      <c r="AE495">
+        <v>0</v>
+      </c>
+      <c r="AF495">
+        <v>0</v>
+      </c>
+      <c r="AG495">
+        <v>0</v>
+      </c>
+      <c r="AH495">
+        <v>0</v>
+      </c>
+      <c r="AI495">
+        <v>0</v>
+      </c>
+      <c r="AJ495">
+        <v>0</v>
+      </c>
+      <c r="AK495">
+        <v>0</v>
+      </c>
+      <c r="AL495">
+        <v>0</v>
+      </c>
+      <c r="AM495">
+        <v>0</v>
+      </c>
+      <c r="AN495">
+        <v>0</v>
+      </c>
+      <c r="AO495">
+        <v>0</v>
+      </c>
+      <c r="AP495">
+        <v>0</v>
+      </c>
+      <c r="AQ495">
+        <v>0</v>
+      </c>
+      <c r="AR495">
+        <v>0</v>
+      </c>
+      <c r="AS495">
+        <v>0</v>
+      </c>
+      <c r="AT495">
+        <v>0</v>
+      </c>
+      <c r="AU495">
+        <v>0</v>
+      </c>
+      <c r="AV495">
+        <v>0</v>
+      </c>
+      <c r="AW495">
+        <v>0</v>
+      </c>
+      <c r="AX495">
+        <v>0</v>
+      </c>
+      <c r="AY495">
+        <v>0</v>
+      </c>
+      <c r="AZ495">
+        <v>0</v>
+      </c>
+      <c r="BA495">
+        <v>0</v>
+      </c>
+      <c r="BB495">
+        <v>0</v>
+      </c>
+      <c r="BC495">
+        <v>0</v>
+      </c>
+      <c r="BD495">
+        <v>0</v>
+      </c>
+      <c r="BE495">
+        <v>0</v>
+      </c>
+      <c r="BF495">
+        <v>0</v>
+      </c>
+      <c r="BG495">
+        <v>0</v>
+      </c>
+      <c r="BH495">
+        <v>0</v>
+      </c>
+      <c r="BI495">
+        <v>0</v>
+      </c>
+      <c r="BJ495">
+        <v>0</v>
+      </c>
+      <c r="BK495">
+        <v>0</v>
+      </c>
+      <c r="BL495">
+        <v>0</v>
+      </c>
+      <c r="BM495">
+        <v>0</v>
+      </c>
+      <c r="BN495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B496" t="s">
+        <v>437</v>
+      </c>
+      <c r="C496">
+        <v>13.4443</v>
+      </c>
+      <c r="D496">
+        <v>144.7937</v>
+      </c>
+      <c r="E496">
+        <v>0</v>
+      </c>
+      <c r="F496">
+        <v>0</v>
+      </c>
+      <c r="G496">
+        <v>0</v>
+      </c>
+      <c r="H496">
+        <v>0</v>
+      </c>
+      <c r="I496">
+        <v>0</v>
+      </c>
+      <c r="J496">
+        <v>0</v>
+      </c>
+      <c r="K496">
+        <v>0</v>
+      </c>
+      <c r="L496">
+        <v>0</v>
+      </c>
+      <c r="M496">
+        <v>0</v>
+      </c>
+      <c r="N496">
+        <v>0</v>
+      </c>
+      <c r="O496">
+        <v>0</v>
+      </c>
+      <c r="P496">
+        <v>0</v>
+      </c>
+      <c r="Q496">
+        <v>0</v>
+      </c>
+      <c r="R496">
+        <v>0</v>
+      </c>
+      <c r="S496">
+        <v>0</v>
+      </c>
+      <c r="T496">
+        <v>0</v>
+      </c>
+      <c r="U496">
+        <v>0</v>
+      </c>
+      <c r="V496">
+        <v>0</v>
+      </c>
+      <c r="W496">
+        <v>0</v>
+      </c>
+      <c r="X496">
+        <v>0</v>
+      </c>
+      <c r="Y496">
+        <v>0</v>
+      </c>
+      <c r="Z496">
+        <v>0</v>
+      </c>
+      <c r="AA496">
+        <v>0</v>
+      </c>
+      <c r="AB496">
+        <v>0</v>
+      </c>
+      <c r="AC496">
+        <v>0</v>
+      </c>
+      <c r="AD496">
+        <v>0</v>
+      </c>
+      <c r="AE496">
+        <v>0</v>
+      </c>
+      <c r="AF496">
+        <v>0</v>
+      </c>
+      <c r="AG496">
+        <v>0</v>
+      </c>
+      <c r="AH496">
+        <v>0</v>
+      </c>
+      <c r="AI496">
+        <v>0</v>
+      </c>
+      <c r="AJ496">
+        <v>0</v>
+      </c>
+      <c r="AK496">
+        <v>0</v>
+      </c>
+      <c r="AL496">
+        <v>0</v>
+      </c>
+      <c r="AM496">
+        <v>0</v>
+      </c>
+      <c r="AN496">
+        <v>0</v>
+      </c>
+      <c r="AO496">
+        <v>0</v>
+      </c>
+      <c r="AP496">
+        <v>0</v>
+      </c>
+      <c r="AQ496">
+        <v>0</v>
+      </c>
+      <c r="AR496">
+        <v>0</v>
+      </c>
+      <c r="AS496">
+        <v>0</v>
+      </c>
+      <c r="AT496">
+        <v>0</v>
+      </c>
+      <c r="AU496">
+        <v>0</v>
+      </c>
+      <c r="AV496">
+        <v>0</v>
+      </c>
+      <c r="AW496">
+        <v>0</v>
+      </c>
+      <c r="AX496">
+        <v>0</v>
+      </c>
+      <c r="AY496">
+        <v>0</v>
+      </c>
+      <c r="AZ496">
+        <v>0</v>
+      </c>
+      <c r="BA496">
+        <v>0</v>
+      </c>
+      <c r="BB496">
+        <v>0</v>
+      </c>
+      <c r="BC496">
+        <v>0</v>
+      </c>
+      <c r="BD496">
+        <v>0</v>
+      </c>
+      <c r="BE496">
+        <v>0</v>
+      </c>
+      <c r="BF496">
+        <v>0</v>
+      </c>
+      <c r="BG496">
+        <v>0</v>
+      </c>
+      <c r="BH496">
+        <v>0</v>
+      </c>
+      <c r="BI496">
+        <v>0</v>
+      </c>
+      <c r="BJ496">
+        <v>0</v>
+      </c>
+      <c r="BK496">
+        <v>0</v>
+      </c>
+      <c r="BL496">
+        <v>0</v>
+      </c>
+      <c r="BM496">
+        <v>0</v>
+      </c>
+      <c r="BN496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B497" t="s">
+        <v>559</v>
+      </c>
+      <c r="C497">
+        <v>49.45</v>
+      </c>
+      <c r="D497">
+        <v>-2.58</v>
+      </c>
+      <c r="E497">
+        <v>0</v>
+      </c>
+      <c r="F497">
+        <v>0</v>
+      </c>
+      <c r="G497">
+        <v>0</v>
+      </c>
+      <c r="H497">
+        <v>0</v>
+      </c>
+      <c r="I497">
+        <v>0</v>
+      </c>
+      <c r="J497">
+        <v>0</v>
+      </c>
+      <c r="K497">
+        <v>0</v>
+      </c>
+      <c r="L497">
+        <v>0</v>
+      </c>
+      <c r="M497">
+        <v>0</v>
+      </c>
+      <c r="N497">
+        <v>0</v>
+      </c>
+      <c r="O497">
+        <v>0</v>
+      </c>
+      <c r="P497">
+        <v>0</v>
+      </c>
+      <c r="Q497">
+        <v>0</v>
+      </c>
+      <c r="R497">
+        <v>0</v>
+      </c>
+      <c r="S497">
+        <v>0</v>
+      </c>
+      <c r="T497">
+        <v>0</v>
+      </c>
+      <c r="U497">
+        <v>0</v>
+      </c>
+      <c r="V497">
+        <v>0</v>
+      </c>
+      <c r="W497">
+        <v>0</v>
+      </c>
+      <c r="X497">
+        <v>0</v>
+      </c>
+      <c r="Y497">
+        <v>0</v>
+      </c>
+      <c r="Z497">
+        <v>0</v>
+      </c>
+      <c r="AA497">
+        <v>0</v>
+      </c>
+      <c r="AB497">
+        <v>0</v>
+      </c>
+      <c r="AC497">
+        <v>0</v>
+      </c>
+      <c r="AD497">
+        <v>0</v>
+      </c>
+      <c r="AE497">
+        <v>0</v>
+      </c>
+      <c r="AF497">
+        <v>0</v>
+      </c>
+      <c r="AG497">
+        <v>0</v>
+      </c>
+      <c r="AH497">
+        <v>0</v>
+      </c>
+      <c r="AI497">
+        <v>0</v>
+      </c>
+      <c r="AJ497">
+        <v>0</v>
+      </c>
+      <c r="AK497">
+        <v>0</v>
+      </c>
+      <c r="AL497">
+        <v>0</v>
+      </c>
+      <c r="AM497">
+        <v>0</v>
+      </c>
+      <c r="AN497">
+        <v>0</v>
+      </c>
+      <c r="AO497">
+        <v>0</v>
+      </c>
+      <c r="AP497">
+        <v>0</v>
+      </c>
+      <c r="AQ497">
+        <v>0</v>
+      </c>
+      <c r="AR497">
+        <v>0</v>
+      </c>
+      <c r="AS497">
+        <v>0</v>
+      </c>
+      <c r="AT497">
+        <v>0</v>
+      </c>
+      <c r="AU497">
+        <v>0</v>
+      </c>
+      <c r="AV497">
+        <v>0</v>
+      </c>
+      <c r="AW497">
+        <v>0</v>
+      </c>
+      <c r="AX497">
+        <v>0</v>
+      </c>
+      <c r="AY497">
+        <v>0</v>
+      </c>
+      <c r="AZ497">
+        <v>0</v>
+      </c>
+      <c r="BA497">
+        <v>0</v>
+      </c>
+      <c r="BB497">
+        <v>0</v>
+      </c>
+      <c r="BC497">
+        <v>0</v>
+      </c>
+      <c r="BD497">
+        <v>0</v>
+      </c>
+      <c r="BE497">
+        <v>0</v>
+      </c>
+      <c r="BF497">
+        <v>0</v>
+      </c>
+      <c r="BG497">
+        <v>0</v>
+      </c>
+      <c r="BH497">
+        <v>0</v>
+      </c>
+      <c r="BI497">
+        <v>0</v>
+      </c>
+      <c r="BJ497">
+        <v>0</v>
+      </c>
+      <c r="BK497">
+        <v>0</v>
+      </c>
+      <c r="BL497">
+        <v>0</v>
+      </c>
+      <c r="BM497">
+        <v>0</v>
+      </c>
+      <c r="BN497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B498" t="s">
+        <v>560</v>
+      </c>
+      <c r="C498">
+        <v>49.19</v>
+      </c>
+      <c r="D498">
+        <v>-2.11</v>
+      </c>
+      <c r="E498">
+        <v>0</v>
+      </c>
+      <c r="F498">
+        <v>0</v>
+      </c>
+      <c r="G498">
+        <v>0</v>
+      </c>
+      <c r="H498">
+        <v>0</v>
+      </c>
+      <c r="I498">
+        <v>0</v>
+      </c>
+      <c r="J498">
+        <v>0</v>
+      </c>
+      <c r="K498">
+        <v>0</v>
+      </c>
+      <c r="L498">
+        <v>0</v>
+      </c>
+      <c r="M498">
+        <v>0</v>
+      </c>
+      <c r="N498">
+        <v>0</v>
+      </c>
+      <c r="O498">
+        <v>0</v>
+      </c>
+      <c r="P498">
+        <v>0</v>
+      </c>
+      <c r="Q498">
+        <v>0</v>
+      </c>
+      <c r="R498">
+        <v>0</v>
+      </c>
+      <c r="S498">
+        <v>0</v>
+      </c>
+      <c r="T498">
+        <v>0</v>
+      </c>
+      <c r="U498">
+        <v>0</v>
+      </c>
+      <c r="V498">
+        <v>0</v>
+      </c>
+      <c r="W498">
+        <v>0</v>
+      </c>
+      <c r="X498">
+        <v>0</v>
+      </c>
+      <c r="Y498">
+        <v>0</v>
+      </c>
+      <c r="Z498">
+        <v>0</v>
+      </c>
+      <c r="AA498">
+        <v>0</v>
+      </c>
+      <c r="AB498">
+        <v>0</v>
+      </c>
+      <c r="AC498">
+        <v>0</v>
+      </c>
+      <c r="AD498">
+        <v>0</v>
+      </c>
+      <c r="AE498">
+        <v>0</v>
+      </c>
+      <c r="AF498">
+        <v>0</v>
+      </c>
+      <c r="AG498">
+        <v>0</v>
+      </c>
+      <c r="AH498">
+        <v>0</v>
+      </c>
+      <c r="AI498">
+        <v>0</v>
+      </c>
+      <c r="AJ498">
+        <v>0</v>
+      </c>
+      <c r="AK498">
+        <v>0</v>
+      </c>
+      <c r="AL498">
+        <v>0</v>
+      </c>
+      <c r="AM498">
+        <v>0</v>
+      </c>
+      <c r="AN498">
+        <v>0</v>
+      </c>
+      <c r="AO498">
+        <v>0</v>
+      </c>
+      <c r="AP498">
+        <v>0</v>
+      </c>
+      <c r="AQ498">
+        <v>0</v>
+      </c>
+      <c r="AR498">
+        <v>0</v>
+      </c>
+      <c r="AS498">
+        <v>0</v>
+      </c>
+      <c r="AT498">
+        <v>0</v>
+      </c>
+      <c r="AU498">
+        <v>0</v>
+      </c>
+      <c r="AV498">
+        <v>0</v>
+      </c>
+      <c r="AW498">
+        <v>0</v>
+      </c>
+      <c r="AX498">
+        <v>0</v>
+      </c>
+      <c r="AY498">
+        <v>0</v>
+      </c>
+      <c r="AZ498">
+        <v>0</v>
+      </c>
+      <c r="BA498">
+        <v>0</v>
+      </c>
+      <c r="BB498">
+        <v>0</v>
+      </c>
+      <c r="BC498">
+        <v>0</v>
+      </c>
+      <c r="BD498">
+        <v>0</v>
+      </c>
+      <c r="BE498">
+        <v>0</v>
+      </c>
+      <c r="BF498">
+        <v>0</v>
+      </c>
+      <c r="BG498">
+        <v>0</v>
+      </c>
+      <c r="BH498">
+        <v>0</v>
+      </c>
+      <c r="BI498">
+        <v>0</v>
+      </c>
+      <c r="BJ498">
+        <v>0</v>
+      </c>
+      <c r="BK498">
+        <v>0</v>
+      </c>
+      <c r="BL498">
+        <v>0</v>
+      </c>
+      <c r="BM498">
+        <v>0</v>
+      </c>
+      <c r="BN498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B499" t="s">
+        <v>423</v>
+      </c>
+      <c r="C499">
+        <v>18.2</v>
+      </c>
+      <c r="D499">
+        <v>-66.5</v>
+      </c>
+      <c r="E499">
+        <v>0</v>
+      </c>
+      <c r="F499">
+        <v>0</v>
+      </c>
+      <c r="G499">
+        <v>0</v>
+      </c>
+      <c r="H499">
+        <v>0</v>
+      </c>
+      <c r="I499">
+        <v>0</v>
+      </c>
+      <c r="J499">
+        <v>0</v>
+      </c>
+      <c r="K499">
+        <v>0</v>
+      </c>
+      <c r="L499">
+        <v>0</v>
+      </c>
+      <c r="M499">
+        <v>0</v>
+      </c>
+      <c r="N499">
+        <v>0</v>
+      </c>
+      <c r="O499">
+        <v>0</v>
+      </c>
+      <c r="P499">
+        <v>0</v>
+      </c>
+      <c r="Q499">
+        <v>0</v>
+      </c>
+      <c r="R499">
+        <v>0</v>
+      </c>
+      <c r="S499">
+        <v>0</v>
+      </c>
+      <c r="T499">
+        <v>0</v>
+      </c>
+      <c r="U499">
+        <v>0</v>
+      </c>
+      <c r="V499">
+        <v>0</v>
+      </c>
+      <c r="W499">
+        <v>0</v>
+      </c>
+      <c r="X499">
+        <v>0</v>
+      </c>
+      <c r="Y499">
+        <v>0</v>
+      </c>
+      <c r="Z499">
+        <v>0</v>
+      </c>
+      <c r="AA499">
+        <v>0</v>
+      </c>
+      <c r="AB499">
+        <v>0</v>
+      </c>
+      <c r="AC499">
+        <v>0</v>
+      </c>
+      <c r="AD499">
+        <v>0</v>
+      </c>
+      <c r="AE499">
+        <v>0</v>
+      </c>
+      <c r="AF499">
+        <v>0</v>
+      </c>
+      <c r="AG499">
+        <v>0</v>
+      </c>
+      <c r="AH499">
+        <v>0</v>
+      </c>
+      <c r="AI499">
+        <v>0</v>
+      </c>
+      <c r="AJ499">
+        <v>0</v>
+      </c>
+      <c r="AK499">
+        <v>0</v>
+      </c>
+      <c r="AL499">
+        <v>0</v>
+      </c>
+      <c r="AM499">
+        <v>0</v>
+      </c>
+      <c r="AN499">
+        <v>0</v>
+      </c>
+      <c r="AO499">
+        <v>0</v>
+      </c>
+      <c r="AP499">
+        <v>0</v>
+      </c>
+      <c r="AQ499">
+        <v>0</v>
+      </c>
+      <c r="AR499">
+        <v>0</v>
+      </c>
+      <c r="AS499">
+        <v>0</v>
+      </c>
+      <c r="AT499">
+        <v>0</v>
+      </c>
+      <c r="AU499">
+        <v>0</v>
+      </c>
+      <c r="AV499">
+        <v>0</v>
+      </c>
+      <c r="AW499">
+        <v>0</v>
+      </c>
+      <c r="AX499">
+        <v>0</v>
+      </c>
+      <c r="AY499">
+        <v>0</v>
+      </c>
+      <c r="AZ499">
+        <v>0</v>
+      </c>
+      <c r="BA499">
+        <v>0</v>
+      </c>
+      <c r="BB499">
+        <v>0</v>
+      </c>
+      <c r="BC499">
+        <v>0</v>
+      </c>
+      <c r="BD499">
+        <v>0</v>
+      </c>
+      <c r="BE499">
+        <v>0</v>
+      </c>
+      <c r="BF499">
+        <v>0</v>
+      </c>
+      <c r="BG499">
+        <v>0</v>
+      </c>
+      <c r="BH499">
+        <v>0</v>
+      </c>
+      <c r="BI499">
+        <v>0</v>
+      </c>
+      <c r="BJ499">
+        <v>0</v>
+      </c>
+      <c r="BK499">
+        <v>0</v>
+      </c>
+      <c r="BL499">
+        <v>0</v>
+      </c>
+      <c r="BM499">
+        <v>0</v>
+      </c>
+      <c r="BN499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B500" t="s">
+        <v>561</v>
+      </c>
+      <c r="C500">
+        <v>-1.44</v>
+      </c>
+      <c r="D500">
+        <v>15.555999999999999</v>
+      </c>
+      <c r="E500">
+        <v>0</v>
+      </c>
+      <c r="F500">
+        <v>0</v>
+      </c>
+      <c r="G500">
+        <v>0</v>
+      </c>
+      <c r="H500">
+        <v>0</v>
+      </c>
+      <c r="I500">
+        <v>0</v>
+      </c>
+      <c r="J500">
+        <v>0</v>
+      </c>
+      <c r="K500">
+        <v>0</v>
+      </c>
+      <c r="L500">
+        <v>0</v>
+      </c>
+      <c r="M500">
+        <v>0</v>
+      </c>
+      <c r="N500">
+        <v>0</v>
+      </c>
+      <c r="O500">
+        <v>0</v>
+      </c>
+      <c r="P500">
+        <v>0</v>
+      </c>
+      <c r="Q500">
+        <v>0</v>
+      </c>
+      <c r="R500">
+        <v>0</v>
+      </c>
+      <c r="S500">
+        <v>0</v>
+      </c>
+      <c r="T500">
+        <v>0</v>
+      </c>
+      <c r="U500">
+        <v>0</v>
+      </c>
+      <c r="V500">
+        <v>0</v>
+      </c>
+      <c r="W500">
+        <v>0</v>
+      </c>
+      <c r="X500">
+        <v>0</v>
+      </c>
+      <c r="Y500">
+        <v>0</v>
+      </c>
+      <c r="Z500">
+        <v>0</v>
+      </c>
+      <c r="AA500">
+        <v>0</v>
+      </c>
+      <c r="AB500">
+        <v>0</v>
+      </c>
+      <c r="AC500">
+        <v>0</v>
+      </c>
+      <c r="AD500">
+        <v>0</v>
+      </c>
+      <c r="AE500">
+        <v>0</v>
+      </c>
+      <c r="AF500">
+        <v>0</v>
+      </c>
+      <c r="AG500">
+        <v>0</v>
+      </c>
+      <c r="AH500">
+        <v>0</v>
+      </c>
+      <c r="AI500">
+        <v>0</v>
+      </c>
+      <c r="AJ500">
+        <v>0</v>
+      </c>
+      <c r="AK500">
+        <v>0</v>
+      </c>
+      <c r="AL500">
+        <v>0</v>
+      </c>
+      <c r="AM500">
+        <v>0</v>
+      </c>
+      <c r="AN500">
+        <v>0</v>
+      </c>
+      <c r="AO500">
+        <v>0</v>
+      </c>
+      <c r="AP500">
+        <v>0</v>
+      </c>
+      <c r="AQ500">
+        <v>0</v>
+      </c>
+      <c r="AR500">
+        <v>0</v>
+      </c>
+      <c r="AS500">
+        <v>0</v>
+      </c>
+      <c r="AT500">
+        <v>0</v>
+      </c>
+      <c r="AU500">
+        <v>0</v>
+      </c>
+      <c r="AV500">
+        <v>0</v>
+      </c>
+      <c r="AW500">
+        <v>0</v>
+      </c>
+      <c r="AX500">
+        <v>0</v>
+      </c>
+      <c r="AY500">
+        <v>0</v>
+      </c>
+      <c r="AZ500">
+        <v>0</v>
+      </c>
+      <c r="BA500">
+        <v>0</v>
+      </c>
+      <c r="BB500">
+        <v>0</v>
+      </c>
+      <c r="BC500">
+        <v>0</v>
+      </c>
+      <c r="BD500">
+        <v>0</v>
+      </c>
+      <c r="BE500">
+        <v>0</v>
+      </c>
+      <c r="BF500">
+        <v>0</v>
+      </c>
+      <c r="BG500">
+        <v>0</v>
+      </c>
+      <c r="BH500">
+        <v>0</v>
+      </c>
+      <c r="BI500">
+        <v>0</v>
+      </c>
+      <c r="BJ500">
+        <v>0</v>
+      </c>
+      <c r="BK500">
+        <v>0</v>
+      </c>
+      <c r="BL500">
+        <v>0</v>
+      </c>
+      <c r="BM500">
+        <v>0</v>
+      </c>
+      <c r="BN500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B501" t="s">
+        <v>562</v>
+      </c>
+      <c r="C501">
+        <v>24.25</v>
+      </c>
+      <c r="D501">
+        <v>-76</v>
+      </c>
+      <c r="E501">
+        <v>0</v>
+      </c>
+      <c r="F501">
+        <v>0</v>
+      </c>
+      <c r="G501">
+        <v>0</v>
+      </c>
+      <c r="H501">
+        <v>0</v>
+      </c>
+      <c r="I501">
+        <v>0</v>
+      </c>
+      <c r="J501">
+        <v>0</v>
+      </c>
+      <c r="K501">
+        <v>0</v>
+      </c>
+      <c r="L501">
+        <v>0</v>
+      </c>
+      <c r="M501">
+        <v>0</v>
+      </c>
+      <c r="N501">
+        <v>0</v>
+      </c>
+      <c r="O501">
+        <v>0</v>
+      </c>
+      <c r="P501">
+        <v>0</v>
+      </c>
+      <c r="Q501">
+        <v>0</v>
+      </c>
+      <c r="R501">
+        <v>0</v>
+      </c>
+      <c r="S501">
+        <v>0</v>
+      </c>
+      <c r="T501">
+        <v>0</v>
+      </c>
+      <c r="U501">
+        <v>0</v>
+      </c>
+      <c r="V501">
+        <v>0</v>
+      </c>
+      <c r="W501">
+        <v>0</v>
+      </c>
+      <c r="X501">
+        <v>0</v>
+      </c>
+      <c r="Y501">
+        <v>0</v>
+      </c>
+      <c r="Z501">
+        <v>0</v>
+      </c>
+      <c r="AA501">
+        <v>0</v>
+      </c>
+      <c r="AB501">
+        <v>0</v>
+      </c>
+      <c r="AC501">
+        <v>0</v>
+      </c>
+      <c r="AD501">
+        <v>0</v>
+      </c>
+      <c r="AE501">
+        <v>0</v>
+      </c>
+      <c r="AF501">
+        <v>0</v>
+      </c>
+      <c r="AG501">
+        <v>0</v>
+      </c>
+      <c r="AH501">
+        <v>0</v>
+      </c>
+      <c r="AI501">
+        <v>0</v>
+      </c>
+      <c r="AJ501">
+        <v>0</v>
+      </c>
+      <c r="AK501">
+        <v>0</v>
+      </c>
+      <c r="AL501">
+        <v>0</v>
+      </c>
+      <c r="AM501">
+        <v>0</v>
+      </c>
+      <c r="AN501">
+        <v>0</v>
+      </c>
+      <c r="AO501">
+        <v>0</v>
+      </c>
+      <c r="AP501">
+        <v>0</v>
+      </c>
+      <c r="AQ501">
+        <v>0</v>
+      </c>
+      <c r="AR501">
+        <v>0</v>
+      </c>
+      <c r="AS501">
+        <v>0</v>
+      </c>
+      <c r="AT501">
+        <v>0</v>
+      </c>
+      <c r="AU501">
+        <v>0</v>
+      </c>
+      <c r="AV501">
+        <v>0</v>
+      </c>
+      <c r="AW501">
+        <v>0</v>
+      </c>
+      <c r="AX501">
+        <v>0</v>
+      </c>
+      <c r="AY501">
+        <v>0</v>
+      </c>
+      <c r="AZ501">
+        <v>0</v>
+      </c>
+      <c r="BA501">
+        <v>0</v>
+      </c>
+      <c r="BB501">
+        <v>0</v>
+      </c>
+      <c r="BC501">
+        <v>0</v>
+      </c>
+      <c r="BD501">
+        <v>0</v>
+      </c>
+      <c r="BE501">
+        <v>0</v>
+      </c>
+      <c r="BF501">
+        <v>0</v>
+      </c>
+      <c r="BG501">
+        <v>0</v>
+      </c>
+      <c r="BH501">
+        <v>0</v>
+      </c>
+      <c r="BI501">
+        <v>0</v>
+      </c>
+      <c r="BJ501">
+        <v>0</v>
+      </c>
+      <c r="BK501">
+        <v>0</v>
+      </c>
+      <c r="BL501">
+        <v>0</v>
+      </c>
+      <c r="BM501">
+        <v>0</v>
+      </c>
+      <c r="BN501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="2:66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B502" t="s">
+        <v>563</v>
+      </c>
+      <c r="C502">
+        <v>13.466699999999999</v>
+      </c>
+      <c r="D502">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="E502">
+        <v>0</v>
+      </c>
+      <c r="F502">
+        <v>0</v>
+      </c>
+      <c r="G502">
+        <v>0</v>
+      </c>
+      <c r="H502">
+        <v>0</v>
+      </c>
+      <c r="I502">
+        <v>0</v>
+      </c>
+      <c r="J502">
+        <v>0</v>
+      </c>
+      <c r="K502">
+        <v>0</v>
+      </c>
+      <c r="L502">
+        <v>0</v>
+      </c>
+      <c r="M502">
+        <v>0</v>
+      </c>
+      <c r="N502">
+        <v>0</v>
+      </c>
+      <c r="O502">
+        <v>0</v>
+      </c>
+      <c r="P502">
+        <v>0</v>
+      </c>
+      <c r="Q502">
+        <v>0</v>
+      </c>
+      <c r="R502">
+        <v>0</v>
+      </c>
+      <c r="S502">
+        <v>0</v>
+      </c>
+      <c r="T502">
+        <v>0</v>
+      </c>
+      <c r="U502">
+        <v>0</v>
+      </c>
+      <c r="V502">
+        <v>0</v>
+      </c>
+      <c r="W502">
+        <v>0</v>
+      </c>
+      <c r="X502">
+        <v>0</v>
+      </c>
+      <c r="Y502">
+        <v>0</v>
+      </c>
+      <c r="Z502">
+        <v>0</v>
+      </c>
+      <c r="AA502">
+        <v>0</v>
+      </c>
+      <c r="AB502">
+        <v>0</v>
+      </c>
+      <c r="AC502">
+        <v>0</v>
+      </c>
+      <c r="AD502">
+        <v>0</v>
+      </c>
+      <c r="AE502">
+        <v>0</v>
+      </c>
+      <c r="AF502">
+        <v>0</v>
+      </c>
+      <c r="AG502">
+        <v>0</v>
+      </c>
+      <c r="AH502">
+        <v>0</v>
+      </c>
+      <c r="AI502">
+        <v>0</v>
+      </c>
+      <c r="AJ502">
+        <v>0</v>
+      </c>
+      <c r="AK502">
+        <v>0</v>
+      </c>
+      <c r="AL502">
+        <v>0</v>
+      </c>
+      <c r="AM502">
+        <v>0</v>
+      </c>
+      <c r="AN502">
+        <v>0</v>
+      </c>
+      <c r="AO502">
+        <v>0</v>
+      </c>
+      <c r="AP502">
+        <v>0</v>
+      </c>
+      <c r="AQ502">
+        <v>0</v>
+      </c>
+      <c r="AR502">
+        <v>0</v>
+      </c>
+      <c r="AS502">
+        <v>0</v>
+      </c>
+      <c r="AT502">
+        <v>0</v>
+      </c>
+      <c r="AU502">
+        <v>0</v>
+      </c>
+      <c r="AV502">
+        <v>0</v>
+      </c>
+      <c r="AW502">
+        <v>0</v>
+      </c>
+      <c r="AX502">
+        <v>0</v>
+      </c>
+      <c r="AY502">
+        <v>0</v>
+      </c>
+      <c r="AZ502">
+        <v>0</v>
+      </c>
+      <c r="BA502">
+        <v>0</v>
+      </c>
+      <c r="BB502">
+        <v>0</v>
+      </c>
+      <c r="BC502">
+        <v>0</v>
+      </c>
+      <c r="BD502">
+        <v>0</v>
+      </c>
+      <c r="BE502">
+        <v>0</v>
+      </c>
+      <c r="BF502">
+        <v>0</v>
+      </c>
+      <c r="BG502">
+        <v>0</v>
+      </c>
+      <c r="BH502">
+        <v>0</v>
+      </c>
+      <c r="BI502">
+        <v>0</v>
+      </c>
+      <c r="BJ502">
+        <v>0</v>
+      </c>
+      <c r="BK502">
+        <v>0</v>
+      </c>
+      <c r="BL502">
+        <v>0</v>
+      </c>
+      <c r="BM502">
+        <v>0</v>
+      </c>
+      <c r="BN502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B506" t="s">
         <v>555</v>
       </c>
-      <c r="E490" s="2">
+      <c r="E506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[1/22/2020])</f>
         <v>548</v>
       </c>
-      <c r="F490" s="2">
+      <c r="F506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[1/23/2020])</f>
         <v>643</v>
       </c>
-      <c r="G490" s="2">
+      <c r="G506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[1/24/2020])</f>
         <v>920</v>
       </c>
-      <c r="H490" s="2">
+      <c r="H506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[1/25/2020])</f>
         <v>1406</v>
       </c>
-      <c r="I490" s="2">
+      <c r="I506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[1/26/2020])</f>
         <v>2075</v>
       </c>
-      <c r="J490" s="2">
+      <c r="J506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[1/27/2020])</f>
         <v>2877</v>
       </c>
-      <c r="K490" s="2">
+      <c r="K506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[1/28/2020])</f>
         <v>5509</v>
       </c>
-      <c r="L490" s="2">
+      <c r="L506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[1/29/2020])</f>
         <v>6087</v>
       </c>
-      <c r="M490" s="2">
+      <c r="M506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[1/30/2020])</f>
         <v>8141</v>
       </c>
-      <c r="N490" s="2">
+      <c r="N506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[1/31/2020])</f>
         <v>9802</v>
       </c>
-      <c r="O490" s="2">
+      <c r="O506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/1/2020])</f>
         <v>11891</v>
       </c>
-      <c r="P490" s="2">
+      <c r="P506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/2/2020])</f>
         <v>16630</v>
       </c>
-      <c r="Q490" s="2">
+      <c r="Q506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/3/2020])</f>
         <v>19716</v>
       </c>
-      <c r="R490" s="2">
+      <c r="R506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/4/2020])</f>
         <v>23707</v>
       </c>
-      <c r="S490" s="2">
+      <c r="S506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/5/2020])</f>
         <v>27440</v>
       </c>
-      <c r="T490" s="2">
+      <c r="T506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/6/2020])</f>
         <v>30587</v>
       </c>
-      <c r="U490" s="2">
+      <c r="U506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/7/2020])</f>
         <v>34110</v>
       </c>
-      <c r="V490" s="2">
+      <c r="V506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/8/2020])</f>
         <v>36814</v>
       </c>
-      <c r="W490" s="2">
+      <c r="W506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/9/2020])</f>
         <v>39829</v>
       </c>
-      <c r="X490" s="2">
+      <c r="X506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/10/2020])</f>
         <v>42354</v>
       </c>
-      <c r="Y490" s="2">
+      <c r="Y506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/11/2020])</f>
         <v>44386</v>
       </c>
-      <c r="Z490" s="2">
+      <c r="Z506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/12/2020])</f>
         <v>44759</v>
       </c>
-      <c r="AA490" s="2">
+      <c r="AA506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/13/2020])</f>
         <v>59895</v>
       </c>
-      <c r="AB490" s="2">
+      <c r="AB506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/14/2020])</f>
         <v>66358</v>
       </c>
-      <c r="AC490" s="2">
+      <c r="AC506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/15/2020])</f>
         <v>68413</v>
       </c>
-      <c r="AD490" s="2">
+      <c r="AD506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/16/2020])</f>
         <v>70513</v>
       </c>
-      <c r="AE490" s="2">
+      <c r="AE506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/17/2020])</f>
         <v>72434</v>
       </c>
-      <c r="AF490" s="2">
+      <c r="AF506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/18/2020])</f>
         <v>74211</v>
       </c>
-      <c r="AG490" s="2">
+      <c r="AG506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/19/2020])</f>
         <v>74619</v>
       </c>
-      <c r="AH490" s="2">
+      <c r="AH506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/20/2020])</f>
         <v>75077</v>
       </c>
-      <c r="AI490" s="2">
+      <c r="AI506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/21/2020])</f>
         <v>75550</v>
       </c>
-      <c r="AJ490" s="2">
+      <c r="AJ506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/22/2020])</f>
         <v>77001</v>
       </c>
-      <c r="AK490" s="2">
+      <c r="AK506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/23/2020])</f>
         <v>77022</v>
       </c>
-      <c r="AL490" s="2">
+      <c r="AL506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/24/2020])</f>
         <v>77241</v>
       </c>
-      <c r="AM490" s="2">
+      <c r="AM506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/25/2020])</f>
         <v>77754</v>
       </c>
-      <c r="AN490" s="2">
+      <c r="AN506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/26/2020])</f>
         <v>78166</v>
       </c>
-      <c r="AO490" s="2">
+      <c r="AO506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/27/2020])</f>
         <v>78600</v>
       </c>
-      <c r="AP490" s="2">
+      <c r="AP506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/28/2020])</f>
         <v>78928</v>
       </c>
-      <c r="AQ490" s="2">
+      <c r="AQ506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[2/29/2020])</f>
         <v>79356</v>
       </c>
-      <c r="AR490" s="2">
+      <c r="AR506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/1/2020])</f>
         <v>79932</v>
       </c>
-      <c r="AS490" s="2">
+      <c r="AS506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/2/2020])</f>
         <v>80136</v>
       </c>
-      <c r="AT490" s="2">
+      <c r="AT506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/3/2020])</f>
         <v>80261</v>
       </c>
-      <c r="AU490" s="2">
+      <c r="AU506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/4/2020])</f>
         <v>80386</v>
       </c>
-      <c r="AV490" s="2">
+      <c r="AV506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/5/2020])</f>
         <v>80537</v>
       </c>
-      <c r="AW490" s="2">
+      <c r="AW506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/6/2020])</f>
         <v>80690</v>
       </c>
-      <c r="AX490" s="2">
+      <c r="AX506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/7/2020])</f>
         <v>80770</v>
       </c>
-      <c r="AY490" s="2">
+      <c r="AY506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/8/2020])</f>
         <v>80823</v>
       </c>
-      <c r="AZ490" s="2">
+      <c r="AZ506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/9/2020])</f>
         <v>80860</v>
       </c>
-      <c r="BA490" s="2">
+      <c r="BA506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/10/2020])</f>
         <v>80887</v>
       </c>
-      <c r="BB490" s="2">
+      <c r="BB506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/11/2020])</f>
         <v>80921</v>
       </c>
-      <c r="BC490" s="2">
+      <c r="BC506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/12/2020])</f>
         <v>80932</v>
       </c>
-      <c r="BD490" s="2">
+      <c r="BD506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/13/2020])</f>
         <v>80945</v>
       </c>
-      <c r="BE490" s="2">
+      <c r="BE506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/14/2020])</f>
         <v>80977</v>
       </c>
-      <c r="BF490" s="2">
+      <c r="BF506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/15/2020])</f>
         <v>81003</v>
       </c>
-      <c r="BG490" s="2">
+      <c r="BG506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/16/2020])</f>
         <v>81033</v>
       </c>
-      <c r="BH490" s="2">
+      <c r="BH506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/17/2020])</f>
         <v>81058</v>
       </c>
-      <c r="BI490" s="2">
+      <c r="BI506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/18/2020])</f>
         <v>81102</v>
       </c>
-      <c r="BJ490" s="2">
+      <c r="BJ506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/19/2020])</f>
         <v>81156</v>
       </c>
-      <c r="BK490" s="2">
+      <c r="BK506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/20/2020])</f>
         <v>81250</v>
       </c>
-      <c r="BL490" s="2">
+      <c r="BL506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/21/2020])</f>
         <v>81305</v>
       </c>
-      <c r="BM490" s="2">
+      <c r="BM506" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/22/2020])</f>
         <v>81397</v>
       </c>
+      <c r="BN506" s="2">
+        <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "China",Table1[3/23/2020])</f>
+        <v>81439</v>
+      </c>
     </row>
-    <row r="491" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B491" t="s">
+    <row r="507" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B507" t="s">
         <v>554</v>
       </c>
-      <c r="E491" s="2">
+      <c r="E507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[1/22/2020])</f>
         <v>1</v>
       </c>
-      <c r="F491" s="2">
+      <c r="F507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[1/23/2020])</f>
         <v>1</v>
       </c>
-      <c r="G491" s="2">
+      <c r="G507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[1/24/2020])</f>
         <v>2</v>
       </c>
-      <c r="H491" s="2">
+      <c r="H507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[1/25/2020])</f>
         <v>2</v>
       </c>
-      <c r="I491" s="2">
+      <c r="I507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[1/26/2020])</f>
         <v>5</v>
       </c>
-      <c r="J491" s="2">
+      <c r="J507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[1/27/2020])</f>
         <v>5</v>
       </c>
-      <c r="K491" s="2">
+      <c r="K507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[1/28/2020])</f>
         <v>5</v>
       </c>
-      <c r="L491" s="2">
+      <c r="L507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[1/29/2020])</f>
         <v>5</v>
       </c>
-      <c r="M491" s="2">
+      <c r="M507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[1/30/2020])</f>
         <v>5</v>
       </c>
-      <c r="N491" s="2">
+      <c r="N507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[1/31/2020])</f>
         <v>7</v>
       </c>
-      <c r="O491" s="2">
+      <c r="O507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/1/2020])</f>
         <v>8</v>
       </c>
-      <c r="P491" s="2">
+      <c r="P507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/2/2020])</f>
         <v>8</v>
       </c>
-      <c r="Q491" s="2">
+      <c r="Q507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/3/2020])</f>
         <v>11</v>
       </c>
-      <c r="R491" s="2">
+      <c r="R507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/4/2020])</f>
         <v>11</v>
       </c>
-      <c r="S491" s="2">
+      <c r="S507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/5/2020])</f>
         <v>11</v>
       </c>
-      <c r="T491" s="2">
+      <c r="T507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/6/2020])</f>
         <v>11</v>
       </c>
-      <c r="U491" s="2">
+      <c r="U507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/7/2020])</f>
         <v>11</v>
       </c>
-      <c r="V491" s="2">
+      <c r="V507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/8/2020])</f>
         <v>11</v>
       </c>
-      <c r="W491" s="2">
+      <c r="W507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/9/2020])</f>
         <v>11</v>
       </c>
-      <c r="X491" s="2">
+      <c r="X507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/10/2020])</f>
         <v>11</v>
       </c>
-      <c r="Y491" s="2">
+      <c r="Y507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/11/2020])</f>
         <v>12</v>
       </c>
-      <c r="Z491" s="2">
+      <c r="Z507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/12/2020])</f>
         <v>12</v>
       </c>
-      <c r="AA491" s="2">
+      <c r="AA507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/13/2020])</f>
         <v>13</v>
       </c>
-      <c r="AB491" s="2">
+      <c r="AB507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/14/2020])</f>
         <v>13</v>
       </c>
-      <c r="AC491" s="2">
+      <c r="AC507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/15/2020])</f>
         <v>13</v>
       </c>
-      <c r="AD491" s="2">
+      <c r="AD507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/16/2020])</f>
         <v>13</v>
       </c>
-      <c r="AE491" s="2">
+      <c r="AE507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/17/2020])</f>
         <v>13</v>
       </c>
-      <c r="AF491" s="2">
+      <c r="AF507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/18/2020])</f>
         <v>13</v>
       </c>
-      <c r="AG491" s="2">
+      <c r="AG507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/19/2020])</f>
         <v>13</v>
       </c>
-      <c r="AH491" s="2">
+      <c r="AH507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/20/2020])</f>
         <v>13</v>
       </c>
-      <c r="AI491" s="2">
+      <c r="AI507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/21/2020])</f>
         <v>15</v>
       </c>
-      <c r="AJ491" s="2">
+      <c r="AJ507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/22/2020])</f>
         <v>15</v>
       </c>
-      <c r="AK491" s="2">
+      <c r="AK507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/23/2020])</f>
         <v>15</v>
       </c>
-      <c r="AL491" s="2">
+      <c r="AL507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/24/2020])</f>
         <v>51</v>
       </c>
-      <c r="AM491" s="2">
+      <c r="AM507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/25/2020])</f>
         <v>51</v>
       </c>
-      <c r="AN491" s="2">
+      <c r="AN507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/26/2020])</f>
         <v>57</v>
       </c>
-      <c r="AO491" s="2">
+      <c r="AO507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/27/2020])</f>
         <v>58</v>
       </c>
-      <c r="AP491" s="2">
+      <c r="AP507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/28/2020])</f>
         <v>60</v>
       </c>
-      <c r="AQ491" s="2">
+      <c r="AQ507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[2/29/2020])</f>
         <v>68</v>
       </c>
-      <c r="AR491" s="2">
+      <c r="AR507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/1/2020])</f>
         <v>74</v>
       </c>
-      <c r="AS491" s="2">
+      <c r="AS507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/2/2020])</f>
         <v>98</v>
       </c>
-      <c r="AT491" s="2">
+      <c r="AT507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/3/2020])</f>
         <v>118</v>
       </c>
-      <c r="AU491" s="2">
+      <c r="AU507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/4/2020])</f>
         <v>149</v>
       </c>
-      <c r="AV491" s="2">
+      <c r="AV507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/5/2020])</f>
         <v>217</v>
       </c>
-      <c r="AW491" s="2">
+      <c r="AW507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/6/2020])</f>
         <v>262</v>
       </c>
-      <c r="AX491" s="2">
+      <c r="AX507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/7/2020])</f>
         <v>402</v>
       </c>
-      <c r="AY491" s="2">
+      <c r="AY507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/8/2020])</f>
         <v>518</v>
       </c>
-      <c r="AZ491" s="2">
+      <c r="AZ507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/9/2020])</f>
         <v>583</v>
       </c>
-      <c r="BA491" s="2">
+      <c r="BA507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/10/2020])</f>
         <v>959</v>
       </c>
-      <c r="BB491" s="2">
+      <c r="BB507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/11/2020])</f>
         <v>1281</v>
       </c>
-      <c r="BC491" s="2">
+      <c r="BC507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/12/2020])</f>
         <v>1663</v>
       </c>
-      <c r="BD491" s="2">
+      <c r="BD507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/13/2020])</f>
         <v>2179</v>
       </c>
-      <c r="BE491" s="2">
+      <c r="BE507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/14/2020])</f>
         <v>2727</v>
       </c>
-      <c r="BF491" s="2">
+      <c r="BF507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/15/2020])</f>
         <v>3499</v>
       </c>
-      <c r="BG491" s="2">
+      <c r="BG507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/16/2020])</f>
         <v>4632</v>
       </c>
-      <c r="BH491" s="2">
+      <c r="BH507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/17/2020])</f>
         <v>6421</v>
       </c>
-      <c r="BI491" s="2">
+      <c r="BI507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/18/2020])</f>
         <v>7783</v>
       </c>
-      <c r="BJ491" s="2">
+      <c r="BJ507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/19/2020])</f>
         <v>13677</v>
       </c>
-      <c r="BK491" s="2">
+      <c r="BK507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/20/2020])</f>
         <v>19100</v>
       </c>
-      <c r="BL491" s="2">
+      <c r="BL507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/21/2020])</f>
         <v>25489</v>
       </c>
-      <c r="BM491" s="2">
+      <c r="BM507" s="2">
         <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/22/2020])</f>
         <v>33272</v>
       </c>
+      <c r="BN507" s="2">
+        <f>SUMIF(Table1[[Country/Region]:[Country/Region]], "US",Table1[3/23/2020])</f>
+        <v>33276</v>
+      </c>
     </row>
-    <row r="493" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B493" t="s">
+    <row r="508" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="BN508" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="509" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B509" t="s">
         <v>557</v>
       </c>
-      <c r="F493" s="3">
-        <f>F491-E491</f>
-        <v>0</v>
-      </c>
-      <c r="G493" s="3">
-        <f>G491-F491</f>
-        <v>1</v>
-      </c>
-      <c r="H493" s="3">
-        <f>H491-G491</f>
-        <v>0</v>
-      </c>
-      <c r="I493" s="3">
-        <f>I491-H491</f>
+      <c r="F509" s="3">
+        <f>F507-E507</f>
+        <v>0</v>
+      </c>
+      <c r="G509" s="3">
+        <f>G507-F507</f>
+        <v>1</v>
+      </c>
+      <c r="H509" s="3">
+        <f>H507-G507</f>
+        <v>0</v>
+      </c>
+      <c r="I509" s="3">
+        <f>I507-H507</f>
         <v>3</v>
       </c>
-      <c r="J493" s="3">
-        <f>J491-I491</f>
-        <v>0</v>
-      </c>
-      <c r="K493" s="3">
-        <f t="shared" ref="K493:P493" si="0">K491-J491</f>
-        <v>0</v>
-      </c>
-      <c r="L493" s="3">
+      <c r="J509" s="3">
+        <f>J507-I507</f>
+        <v>0</v>
+      </c>
+      <c r="K509" s="3">
+        <f t="shared" ref="K509:P509" si="0">K507-J507</f>
+        <v>0</v>
+      </c>
+      <c r="L509" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M493" s="3">
+      <c r="M509" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N493" s="3">
+      <c r="N509" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O493" s="3">
+      <c r="O509" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P493" s="3">
+      <c r="P509" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q493" s="3">
-        <f t="shared" ref="Q493:BM493" si="1">Q491-P491</f>
+      <c r="Q509" s="3">
+        <f t="shared" ref="Q509:BM509" si="1">Q507-P507</f>
         <v>3</v>
       </c>
-      <c r="R493" s="3">
+      <c r="R509" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S493" s="3">
+      <c r="S509" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T493" s="3">
+      <c r="T509" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U493" s="3">
+      <c r="U509" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V493" s="3">
+      <c r="V509" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W493" s="3">
+      <c r="W509" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X493" s="3">
+      <c r="X509" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y493" s="3">
+      <c r="Y509" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Z493" s="3">
+      <c r="Z509" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA493" s="3">
+      <c r="AA509" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AB493" s="3">
+      <c r="AB509" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC493" s="3">
+      <c r="AC509" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD493" s="3">
+      <c r="AD509" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE493" s="3">
+      <c r="AE509" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF493" s="3">
+      <c r="AF509" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG493" s="3">
+      <c r="AG509" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH493" s="3">
+      <c r="AH509" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI493" s="3">
+      <c r="AI509" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ493" s="3">
+      <c r="AJ509" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK493" s="3">
+      <c r="AK509" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL493" s="3">
+      <c r="AL509" s="3">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="AM493" s="3">
+      <c r="AM509" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN493" s="3">
+      <c r="AN509" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AO493" s="3">
+      <c r="AO509" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AP493" s="3">
+      <c r="AP509" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AQ493" s="3">
+      <c r="AQ509" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AR493" s="3">
+      <c r="AR509" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AS493" s="3">
+      <c r="AS509" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AT493" s="3">
+      <c r="AT509" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AU493" s="3">
+      <c r="AU509" s="3">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="AV493" s="3">
+      <c r="AV509" s="3">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="AW493" s="3">
+      <c r="AW509" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="AX493" s="3">
+      <c r="AX509" s="3">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="AY493" s="3">
+      <c r="AY509" s="3">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="AZ493" s="3">
+      <c r="AZ509" s="3">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="BA493" s="3">
+      <c r="BA509" s="3">
         <f t="shared" si="1"/>
         <v>376</v>
       </c>
-      <c r="BB493" s="3">
+      <c r="BB509" s="3">
         <f t="shared" si="1"/>
         <v>322</v>
       </c>
-      <c r="BC493" s="3">
+      <c r="BC509" s="3">
         <f t="shared" si="1"/>
         <v>382</v>
       </c>
-      <c r="BD493" s="3">
+      <c r="BD509" s="3">
         <f t="shared" si="1"/>
         <v>516</v>
       </c>
-      <c r="BE493" s="3">
+      <c r="BE509" s="3">
         <f t="shared" si="1"/>
         <v>548</v>
       </c>
-      <c r="BF493" s="3">
+      <c r="BF509" s="3">
         <f t="shared" si="1"/>
         <v>772</v>
       </c>
-      <c r="BG493" s="3">
+      <c r="BG509" s="3">
         <f t="shared" si="1"/>
         <v>1133</v>
       </c>
-      <c r="BH493" s="3">
+      <c r="BH509" s="3">
         <f t="shared" si="1"/>
         <v>1789</v>
       </c>
-      <c r="BI493" s="3">
+      <c r="BI509" s="3">
         <f t="shared" si="1"/>
         <v>1362</v>
       </c>
-      <c r="BJ493" s="3">
+      <c r="BJ509" s="3">
         <f t="shared" si="1"/>
         <v>5894</v>
       </c>
-      <c r="BK493" s="3">
+      <c r="BK509" s="3">
         <f t="shared" si="1"/>
         <v>5423</v>
       </c>
-      <c r="BL493" s="3">
+      <c r="BL509" s="3">
         <f t="shared" si="1"/>
         <v>6389</v>
       </c>
-      <c r="BM493" s="3">
+      <c r="BM509" s="3">
         <f t="shared" si="1"/>
         <v>7783</v>
       </c>
+      <c r="BN509" s="3">
+        <f t="shared" ref="BN509" si="2">BN507-BM507</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="494" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B494" t="s">
+    <row r="510" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B510" t="s">
         <v>556</v>
       </c>
-      <c r="F494">
+      <c r="F510">
         <f>F18-E18</f>
         <v>0</v>
       </c>
-      <c r="G494">
+      <c r="G510">
         <f>G18-F18</f>
         <v>0</v>
       </c>
-      <c r="H494">
+      <c r="H510">
         <f>H18-G18</f>
         <v>0</v>
       </c>
-      <c r="I494">
+      <c r="I510">
         <f>I18-H18</f>
         <v>0</v>
       </c>
-      <c r="J494">
+      <c r="J510">
         <f>J18-I18</f>
         <v>0</v>
       </c>
-      <c r="K494">
-        <f t="shared" ref="K494:P494" si="2">K18-J18</f>
-        <v>0</v>
-      </c>
-      <c r="L494">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M494">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N494">
-        <f t="shared" si="2"/>
+      <c r="K510">
+        <f t="shared" ref="K510:P510" si="3">K18-J18</f>
+        <v>0</v>
+      </c>
+      <c r="L510">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M510">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N510">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="O494">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P494">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q494">
-        <f t="shared" ref="Q494:BM494" si="3">Q18-P18</f>
-        <v>0</v>
-      </c>
-      <c r="R494">
+      <c r="O510">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S494">
+      <c r="P510">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T494">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U494">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V494">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W494">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X494">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y494">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z494">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA494">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB494">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC494">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD494">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE494">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF494">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG494">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH494">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI494">
-        <f t="shared" si="3"/>
+      <c r="Q510">
+        <f t="shared" ref="Q510:BM510" si="4">Q18-P18</f>
+        <v>0</v>
+      </c>
+      <c r="R510">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S510">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T510">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U510">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V510">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W510">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X510">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y510">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z510">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA510">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB510">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC510">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD510">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE510">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF510">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG510">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH510">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI510">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="AJ494">
-        <f t="shared" si="3"/>
+      <c r="AJ510">
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="AK494">
-        <f t="shared" si="3"/>
+      <c r="AK510">
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="AL494">
-        <f t="shared" si="3"/>
+      <c r="AL510">
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="AM494">
-        <f t="shared" si="3"/>
+      <c r="AM510">
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="AN494" s="3">
-        <f t="shared" si="3"/>
+      <c r="AN510" s="3">
+        <f t="shared" si="4"/>
         <v>131</v>
       </c>
-      <c r="AO494" s="3">
-        <f t="shared" si="3"/>
+      <c r="AO510" s="3">
+        <f t="shared" si="4"/>
         <v>202</v>
       </c>
-      <c r="AP494" s="3">
-        <f t="shared" si="3"/>
+      <c r="AP510" s="3">
+        <f t="shared" si="4"/>
         <v>233</v>
       </c>
-      <c r="AQ494" s="3">
-        <f t="shared" si="3"/>
+      <c r="AQ510" s="3">
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="AR494" s="3">
-        <f t="shared" si="3"/>
+      <c r="AR510" s="3">
+        <f t="shared" si="4"/>
         <v>566</v>
       </c>
-      <c r="AS494" s="3">
-        <f t="shared" si="3"/>
+      <c r="AS510" s="3">
+        <f t="shared" si="4"/>
         <v>342</v>
       </c>
-      <c r="AT494" s="3">
-        <f t="shared" si="3"/>
+      <c r="AT510" s="3">
+        <f t="shared" si="4"/>
         <v>466</v>
       </c>
-      <c r="AU494" s="3">
-        <f t="shared" si="3"/>
+      <c r="AU510" s="3">
+        <f t="shared" si="4"/>
         <v>587</v>
       </c>
-      <c r="AV494" s="3">
-        <f t="shared" si="3"/>
+      <c r="AV510" s="3">
+        <f t="shared" si="4"/>
         <v>769</v>
       </c>
-      <c r="AW494" s="3">
-        <f t="shared" si="3"/>
+      <c r="AW510" s="3">
+        <f t="shared" si="4"/>
         <v>778</v>
       </c>
-      <c r="AX494" s="3">
-        <f t="shared" si="3"/>
+      <c r="AX510" s="3">
+        <f t="shared" si="4"/>
         <v>1247</v>
       </c>
-      <c r="AY494" s="3">
-        <f t="shared" si="3"/>
+      <c r="AY510" s="3">
+        <f t="shared" si="4"/>
         <v>1492</v>
       </c>
-      <c r="AZ494" s="3">
-        <f t="shared" si="3"/>
+      <c r="AZ510" s="3">
+        <f t="shared" si="4"/>
         <v>1797</v>
       </c>
-      <c r="BA494" s="3">
-        <f t="shared" si="3"/>
+      <c r="BA510" s="3">
+        <f t="shared" si="4"/>
         <v>977</v>
       </c>
-      <c r="BB494" s="3">
-        <f t="shared" si="3"/>
+      <c r="BB510" s="3">
+        <f t="shared" si="4"/>
         <v>2313</v>
       </c>
-      <c r="BC494" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD494" s="3">
-        <f t="shared" si="3"/>
+      <c r="BC510" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BD510" s="3">
+        <f t="shared" si="4"/>
         <v>5198</v>
       </c>
-      <c r="BE494" s="3">
-        <f t="shared" si="3"/>
+      <c r="BE510" s="3">
+        <f t="shared" si="4"/>
         <v>3497</v>
       </c>
-      <c r="BF494" s="3">
-        <f t="shared" si="3"/>
+      <c r="BF510" s="3">
+        <f t="shared" si="4"/>
         <v>3590</v>
       </c>
-      <c r="BG494" s="3">
-        <f t="shared" si="3"/>
+      <c r="BG510" s="3">
+        <f t="shared" si="4"/>
         <v>3233</v>
       </c>
-      <c r="BH494" s="3">
-        <f t="shared" si="3"/>
+      <c r="BH510" s="3">
+        <f t="shared" si="4"/>
         <v>3526</v>
       </c>
-      <c r="BI494" s="3">
-        <f t="shared" si="3"/>
+      <c r="BI510" s="3">
+        <f t="shared" si="4"/>
         <v>4207</v>
       </c>
-      <c r="BJ494" s="3">
-        <f t="shared" si="3"/>
+      <c r="BJ510" s="3">
+        <f t="shared" si="4"/>
         <v>5322</v>
       </c>
-      <c r="BK494" s="3">
-        <f t="shared" si="3"/>
+      <c r="BK510" s="3">
+        <f t="shared" si="4"/>
         <v>5986</v>
       </c>
-      <c r="BL494" s="3">
-        <f t="shared" si="3"/>
+      <c r="BL510" s="3">
+        <f t="shared" si="4"/>
         <v>6557</v>
       </c>
-      <c r="BM494" s="3">
-        <f t="shared" si="3"/>
+      <c r="BM510" s="3">
+        <f t="shared" si="4"/>
         <v>5560</v>
+      </c>
+      <c r="BN510" s="3">
+        <f t="shared" ref="BN510" si="5">BN18-BM18</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>